--- a/pelada_sabado_2025_02.xlsx
+++ b/pelada_sabado_2025_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2728" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BBFADB3-1EE3-4631-AC72-0AE1D0EAFE58}"/>
+  <xr:revisionPtr revIDLastSave="2860" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E37606D-7E6D-48B0-8CF0-C9897D3E9CA3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
   <si>
     <t>Boneco</t>
   </si>
@@ -608,11 +608,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H91" sqref="H91"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3492,7 +3492,7 @@
         <v>3</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -3825,6 +3825,776 @@
         <v>13</v>
       </c>
       <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>41</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="F98">
+        <v>3</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>79</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>57</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>32</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <v>3</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112">
+        <v>6</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112">
+        <v>8</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>18</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>55</v>
+      </c>
+      <c r="C113">
+        <v>8</v>
+      </c>
+      <c r="D113">
+        <v>4</v>
+      </c>
+      <c r="E113">
+        <v>6</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>14</v>
+      </c>
+      <c r="L113">
         <v>0</v>
       </c>
     </row>

--- a/pelada_sabado_2025_02.xlsx
+++ b/pelada_sabado_2025_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2860" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E37606D-7E6D-48B0-8CF0-C9897D3E9CA3}"/>
+  <xr:revisionPtr revIDLastSave="2980" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F24E923F-0B25-4EF7-ADD6-3EB0F925F86A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="81">
   <si>
     <t>Boneco</t>
   </si>
@@ -608,11 +608,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:O135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J137" sqref="J137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4227,7 +4227,7 @@
         <v>3</v>
       </c>
       <c r="F103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -4262,7 +4262,7 @@
         <v>3</v>
       </c>
       <c r="F104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -4297,7 +4297,7 @@
         <v>3</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -4332,7 +4332,7 @@
         <v>3</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -4595,6 +4595,776 @@
         <v>14</v>
       </c>
       <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>34</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>36</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+      <c r="F117">
+        <v>4</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>32</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>6</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>57</v>
+      </c>
+      <c r="C120">
+        <v>6</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>6</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>79</v>
+      </c>
+      <c r="C122">
+        <v>6</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>4</v>
+      </c>
+      <c r="F122">
+        <v>4</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>49</v>
+      </c>
+      <c r="C123">
+        <v>6</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>4</v>
+      </c>
+      <c r="F123">
+        <v>3</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>30</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125">
+        <v>5</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125">
+        <v>5</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>29</v>
+      </c>
+      <c r="C127">
+        <v>5</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127">
+        <v>3</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>54</v>
+      </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <v>3</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131">
+        <v>3</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>38</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>3</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134">
+        <v>7</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="E134">
+        <v>6</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>14</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>55</v>
+      </c>
+      <c r="C135">
+        <v>6</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+      <c r="E135">
+        <v>7</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>16</v>
+      </c>
+      <c r="L135">
         <v>0</v>
       </c>
     </row>

--- a/pelada_sabado_2025_02.xlsx
+++ b/pelada_sabado_2025_02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2980" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F24E923F-0B25-4EF7-ADD6-3EB0F925F86A}"/>
+  <xr:revisionPtr revIDLastSave="3212" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B55D683-78CE-4CFD-86CB-A6DD18B19577}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="86">
   <si>
     <t>Boneco</t>
   </si>
@@ -282,6 +282,21 @@
   </si>
   <si>
     <t>João</t>
+  </si>
+  <si>
+    <t>Caio eder</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Vitor</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Bryan</t>
   </si>
 </sst>
 </file>
@@ -608,11 +623,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O135"/>
+  <dimension ref="A1:O180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J137" sqref="J137"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J182" sqref="J182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5368,6 +5383,1581 @@
         <v>0</v>
       </c>
     </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>49</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>3</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>38</v>
+      </c>
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>3</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>3</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>3</v>
+      </c>
+      <c r="F139">
+        <v>2</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>34</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>3</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141">
+        <v>3</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+      <c r="E141">
+        <v>3</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>30</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+      <c r="E142">
+        <v>3</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+      <c r="E143">
+        <v>3</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>81</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+      <c r="E144">
+        <v>3</v>
+      </c>
+      <c r="F144">
+        <v>4</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="E145">
+        <v>3</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>57</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>4</v>
+      </c>
+      <c r="F147">
+        <v>3</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>3</v>
+      </c>
+      <c r="E148">
+        <v>4</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>79</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149">
+        <v>4</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>21</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>3</v>
+      </c>
+      <c r="E150">
+        <v>4</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>36</v>
+      </c>
+      <c r="C151">
+        <v>7</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+      <c r="F151">
+        <v>5</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152">
+        <v>7</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152">
+        <v>2</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>28</v>
+      </c>
+      <c r="C153">
+        <v>7</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154">
+        <v>7</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+      <c r="F154">
+        <v>3</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155">
+        <v>7</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>7</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="F156">
+        <v>4</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>5</v>
+      </c>
+      <c r="E157">
+        <v>12</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>23</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>67</v>
+      </c>
+      <c r="C158">
+        <v>12</v>
+      </c>
+      <c r="D158">
+        <v>5</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>9</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>6</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>4</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>21</v>
+      </c>
+      <c r="C160">
+        <v>6</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>4</v>
+      </c>
+      <c r="F160">
+        <v>4</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>79</v>
+      </c>
+      <c r="C161">
+        <v>6</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>4</v>
+      </c>
+      <c r="F161">
+        <v>5</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>82</v>
+      </c>
+      <c r="C162">
+        <v>6</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>4</v>
+      </c>
+      <c r="F162">
+        <v>2</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>25</v>
+      </c>
+      <c r="C163">
+        <v>6</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>4</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>36</v>
+      </c>
+      <c r="C164">
+        <v>4</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>5</v>
+      </c>
+      <c r="F164">
+        <v>2</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>28</v>
+      </c>
+      <c r="C165">
+        <v>4</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>5</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>83</v>
+      </c>
+      <c r="C166">
+        <v>4</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>5</v>
+      </c>
+      <c r="F166">
+        <v>2</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>80</v>
+      </c>
+      <c r="C167">
+        <v>4</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>5</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168">
+        <v>4</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>5</v>
+      </c>
+      <c r="F168">
+        <v>2</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>23</v>
+      </c>
+      <c r="C169">
+        <v>7</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>4</v>
+      </c>
+      <c r="F169">
+        <v>2</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>35</v>
+      </c>
+      <c r="C170">
+        <v>7</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>4</v>
+      </c>
+      <c r="F170">
+        <v>7</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>49</v>
+      </c>
+      <c r="C171">
+        <v>7</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>4</v>
+      </c>
+      <c r="F171">
+        <v>2</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172">
+        <v>7</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>4</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>7</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>4</v>
+      </c>
+      <c r="F173">
+        <v>4</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>27</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>5</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>5</v>
+      </c>
+      <c r="F175">
+        <v>2</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>84</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>5</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>24</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>5</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>29</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>5</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179">
+        <v>13</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>6</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>9</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>85</v>
+      </c>
+      <c r="C180">
+        <v>6</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>13</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>17</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L455" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_02.xlsx
+++ b/pelada_sabado_2025_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3212" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B55D683-78CE-4CFD-86CB-A6DD18B19577}"/>
+  <xr:revisionPtr revIDLastSave="3323" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E70C262-30DA-42FE-99A0-FD6A8602B390}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="88">
   <si>
     <t>Boneco</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>Bryan</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Douglas</t>
   </si>
 </sst>
 </file>
@@ -623,11 +629,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O180"/>
+  <dimension ref="A1:O202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J182" sqref="J182"/>
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I193" sqref="I193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6958,6 +6964,776 @@
         <v>0</v>
       </c>
     </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>23</v>
+      </c>
+      <c r="C181">
+        <v>4</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>4</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>27</v>
+      </c>
+      <c r="C182">
+        <v>4</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>4</v>
+      </c>
+      <c r="F182">
+        <v>2</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>38</v>
+      </c>
+      <c r="C183">
+        <v>4</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>4</v>
+      </c>
+      <c r="F183">
+        <v>5</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>4</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>4</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>52</v>
+      </c>
+      <c r="C185">
+        <v>4</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>4</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
+      </c>
+      <c r="E186">
+        <v>3</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>86</v>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+      <c r="E187">
+        <v>3</v>
+      </c>
+      <c r="F187">
+        <v>2</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188">
+        <v>3</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+      <c r="E188">
+        <v>3</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>57</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+      <c r="D189">
+        <v>2</v>
+      </c>
+      <c r="E189">
+        <v>3</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>82</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+      <c r="D190">
+        <v>2</v>
+      </c>
+      <c r="E190">
+        <v>3</v>
+      </c>
+      <c r="F190">
+        <v>2</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>24</v>
+      </c>
+      <c r="C191">
+        <v>4</v>
+      </c>
+      <c r="D191">
+        <v>2</v>
+      </c>
+      <c r="E191">
+        <v>2</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>34</v>
+      </c>
+      <c r="C192">
+        <v>4</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+      <c r="E192">
+        <v>2</v>
+      </c>
+      <c r="F192">
+        <v>3</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>79</v>
+      </c>
+      <c r="C193">
+        <v>4</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>20</v>
+      </c>
+      <c r="C194">
+        <v>4</v>
+      </c>
+      <c r="D194">
+        <v>2</v>
+      </c>
+      <c r="E194">
+        <v>2</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>87</v>
+      </c>
+      <c r="C195">
+        <v>4</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+      <c r="F195">
+        <v>2</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>32</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>4</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>36</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>4</v>
+      </c>
+      <c r="F197">
+        <v>4</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>28</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>4</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>43</v>
+      </c>
+      <c r="C199">
+        <v>2</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>4</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>80</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>4</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>17</v>
+      </c>
+      <c r="C201">
+        <v>6</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+      <c r="E201">
+        <v>7</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>14</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>55</v>
+      </c>
+      <c r="C202">
+        <v>7</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202">
+        <v>6</v>
+      </c>
+      <c r="F202">
+        <v>2</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>13</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L455" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_02.xlsx
+++ b/pelada_sabado_2025_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3323" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E70C262-30DA-42FE-99A0-FD6A8602B390}"/>
+  <xr:revisionPtr revIDLastSave="3441" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{925B980D-2C9F-4706-90FD-C8E091CE261D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="90">
   <si>
     <t>Boneco</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>Douglas</t>
+  </si>
+  <si>
+    <t>Vera</t>
+  </si>
+  <si>
+    <t>Juan goleiro</t>
   </si>
 </sst>
 </file>
@@ -629,11 +635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O202"/>
+  <dimension ref="A1:O224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I193" sqref="I193"/>
+      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A225" sqref="A225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6161,7 +6167,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C158">
         <v>12</v>
@@ -7731,6 +7737,776 @@
         <v>13</v>
       </c>
       <c r="L202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>32</v>
+      </c>
+      <c r="C203">
+        <v>6</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>5</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>80</v>
+      </c>
+      <c r="C204">
+        <v>6</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>5</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205">
+        <v>6</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>5</v>
+      </c>
+      <c r="F205">
+        <v>6</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>24</v>
+      </c>
+      <c r="C206">
+        <v>6</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>5</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>38</v>
+      </c>
+      <c r="C207">
+        <v>6</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>5</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>82</v>
+      </c>
+      <c r="C208">
+        <v>4</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>5</v>
+      </c>
+      <c r="F208">
+        <v>3</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>20</v>
+      </c>
+      <c r="C209">
+        <v>4</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>5</v>
+      </c>
+      <c r="F209">
+        <v>3</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210">
+        <v>4</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>5</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>88</v>
+      </c>
+      <c r="C211">
+        <v>4</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>5</v>
+      </c>
+      <c r="F211">
+        <v>2</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212">
+        <v>4</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>5</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>51</v>
+      </c>
+      <c r="C213">
+        <v>4</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>4</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>34</v>
+      </c>
+      <c r="C214">
+        <v>4</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>4</v>
+      </c>
+      <c r="F214">
+        <v>2</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>4</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>4</v>
+      </c>
+      <c r="F215">
+        <v>3</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>25</v>
+      </c>
+      <c r="C216">
+        <v>4</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>4</v>
+      </c>
+      <c r="F216">
+        <v>3</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>4</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>4</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>28</v>
+      </c>
+      <c r="C218">
+        <v>3</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>4</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>36</v>
+      </c>
+      <c r="C219">
+        <v>3</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>4</v>
+      </c>
+      <c r="F219">
+        <v>4</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>79</v>
+      </c>
+      <c r="C220">
+        <v>3</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>4</v>
+      </c>
+      <c r="F220">
+        <v>2</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>49</v>
+      </c>
+      <c r="C221">
+        <v>3</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>4</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>27</v>
+      </c>
+      <c r="C222">
+        <v>3</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>4</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>17</v>
+      </c>
+      <c r="C223">
+        <v>10</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>6</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>18</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>89</v>
+      </c>
+      <c r="C224">
+        <v>6</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>10</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>18</v>
+      </c>
+      <c r="L224">
         <v>0</v>
       </c>
     </row>

--- a/pelada_sabado_2025_02.xlsx
+++ b/pelada_sabado_2025_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3441" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{925B980D-2C9F-4706-90FD-C8E091CE261D}"/>
+  <xr:revisionPtr revIDLastSave="3556" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05DA141D-8B88-4F39-9825-584BFAE18BB5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="94">
   <si>
     <t>Boneco</t>
   </si>
@@ -309,6 +309,18 @@
   </si>
   <si>
     <t>Juan goleiro</t>
+  </si>
+  <si>
+    <t>Maranhão</t>
+  </si>
+  <si>
+    <t>Edu</t>
+  </si>
+  <si>
+    <t>Thiaguinho</t>
+  </si>
+  <si>
+    <t>Marco tulio</t>
   </si>
 </sst>
 </file>
@@ -635,11 +647,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O224"/>
+  <dimension ref="A1:O246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A225" sqref="A225"/>
+      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K247" sqref="K247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8510,6 +8522,776 @@
         <v>0</v>
       </c>
     </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225">
+        <v>4</v>
+      </c>
+      <c r="D225">
+        <v>3</v>
+      </c>
+      <c r="E225">
+        <v>2</v>
+      </c>
+      <c r="F225">
+        <v>3</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <v>4</v>
+      </c>
+      <c r="D226">
+        <v>3</v>
+      </c>
+      <c r="E226">
+        <v>2</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>36</v>
+      </c>
+      <c r="C227">
+        <v>4</v>
+      </c>
+      <c r="D227">
+        <v>3</v>
+      </c>
+      <c r="E227">
+        <v>2</v>
+      </c>
+      <c r="F227">
+        <v>4</v>
+      </c>
+      <c r="G227">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>63</v>
+      </c>
+      <c r="C228">
+        <v>4</v>
+      </c>
+      <c r="D228">
+        <v>3</v>
+      </c>
+      <c r="E228">
+        <v>2</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>1</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>90</v>
+      </c>
+      <c r="C229">
+        <v>4</v>
+      </c>
+      <c r="D229">
+        <v>3</v>
+      </c>
+      <c r="E229">
+        <v>2</v>
+      </c>
+      <c r="F229">
+        <v>2</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>27</v>
+      </c>
+      <c r="C230">
+        <v>5</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>3</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>2</v>
+      </c>
+      <c r="C231">
+        <v>5</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>3</v>
+      </c>
+      <c r="F231">
+        <v>5</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>23</v>
+      </c>
+      <c r="C232">
+        <v>5</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>3</v>
+      </c>
+      <c r="F232">
+        <v>2</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233">
+        <v>5</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>3</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>20</v>
+      </c>
+      <c r="C234">
+        <v>5</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234">
+        <v>3</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="H234">
+        <v>1</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>28</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>2</v>
+      </c>
+      <c r="E235">
+        <v>3</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>91</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>2</v>
+      </c>
+      <c r="E236">
+        <v>3</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>57</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>2</v>
+      </c>
+      <c r="E237">
+        <v>3</v>
+      </c>
+      <c r="F237">
+        <v>2</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>92</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>2</v>
+      </c>
+      <c r="E238">
+        <v>3</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>80</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>2</v>
+      </c>
+      <c r="E239">
+        <v>3</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240">
+        <v>2</v>
+      </c>
+      <c r="D240">
+        <v>2</v>
+      </c>
+      <c r="E240">
+        <v>3</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>24</v>
+      </c>
+      <c r="C241">
+        <v>2</v>
+      </c>
+      <c r="D241">
+        <v>2</v>
+      </c>
+      <c r="E241">
+        <v>3</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>49</v>
+      </c>
+      <c r="C242">
+        <v>2</v>
+      </c>
+      <c r="D242">
+        <v>2</v>
+      </c>
+      <c r="E242">
+        <v>3</v>
+      </c>
+      <c r="F242">
+        <v>2</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243">
+        <v>2</v>
+      </c>
+      <c r="D243">
+        <v>2</v>
+      </c>
+      <c r="E243">
+        <v>3</v>
+      </c>
+      <c r="F243">
+        <v>2</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>29</v>
+      </c>
+      <c r="C244">
+        <v>2</v>
+      </c>
+      <c r="D244">
+        <v>2</v>
+      </c>
+      <c r="E244">
+        <v>3</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>17</v>
+      </c>
+      <c r="C245">
+        <v>6</v>
+      </c>
+      <c r="D245">
+        <v>4</v>
+      </c>
+      <c r="E245">
+        <v>4</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>1</v>
+      </c>
+      <c r="H245">
+        <v>1</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>13</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>93</v>
+      </c>
+      <c r="C246">
+        <v>4</v>
+      </c>
+      <c r="D246">
+        <v>4</v>
+      </c>
+      <c r="E246">
+        <v>6</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>13</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L455" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_02.xlsx
+++ b/pelada_sabado_2025_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3556" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05DA141D-8B88-4F39-9825-584BFAE18BB5}"/>
+  <xr:revisionPtr revIDLastSave="3667" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31DB36F9-CD2C-4078-B9A8-E810F81564E4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="95">
   <si>
     <t>Boneco</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>Marco tulio</t>
+  </si>
+  <si>
+    <t>Hiago</t>
   </si>
 </sst>
 </file>
@@ -647,11 +650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O246"/>
+  <dimension ref="A1:O268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K247" sqref="K247"/>
+      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9292,6 +9295,776 @@
         <v>0</v>
       </c>
     </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>36</v>
+      </c>
+      <c r="C247">
+        <v>7</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <v>3</v>
+      </c>
+      <c r="F247">
+        <v>3</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="H247">
+        <v>1</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>24</v>
+      </c>
+      <c r="C248">
+        <v>7</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>3</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="H248">
+        <v>1</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>38</v>
+      </c>
+      <c r="C249">
+        <v>7</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>3</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="H249">
+        <v>1</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>34</v>
+      </c>
+      <c r="C250">
+        <v>7</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>3</v>
+      </c>
+      <c r="F250">
+        <v>2</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="H250">
+        <v>1</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251">
+        <v>7</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>3</v>
+      </c>
+      <c r="F251">
+        <v>2</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="H251">
+        <v>1</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>2</v>
+      </c>
+      <c r="C252">
+        <v>2</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>5</v>
+      </c>
+      <c r="F252">
+        <v>2</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>57</v>
+      </c>
+      <c r="C253">
+        <v>2</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <v>5</v>
+      </c>
+      <c r="F253">
+        <v>2</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>79</v>
+      </c>
+      <c r="C254">
+        <v>2</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>5</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>1</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>32</v>
+      </c>
+      <c r="C255">
+        <v>2</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>5</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>30</v>
+      </c>
+      <c r="C256">
+        <v>2</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>5</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>20</v>
+      </c>
+      <c r="C257">
+        <v>3</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>4</v>
+      </c>
+      <c r="F257">
+        <v>1</v>
+      </c>
+      <c r="G257">
+        <v>1</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+      <c r="L257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>27</v>
+      </c>
+      <c r="C258">
+        <v>3</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>4</v>
+      </c>
+      <c r="F258">
+        <v>2</v>
+      </c>
+      <c r="G258">
+        <v>1</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>3</v>
+      </c>
+      <c r="C259">
+        <v>3</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>4</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+      <c r="G259">
+        <v>1</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>54</v>
+      </c>
+      <c r="C260">
+        <v>3</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>4</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>1</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>6</v>
+      </c>
+      <c r="C261">
+        <v>3</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>4</v>
+      </c>
+      <c r="F261">
+        <v>4</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>90</v>
+      </c>
+      <c r="C262">
+        <v>4</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>4</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>49</v>
+      </c>
+      <c r="C263">
+        <v>4</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>4</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>4</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>4</v>
+      </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
+      <c r="G264">
+        <v>1</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>23</v>
+      </c>
+      <c r="C265">
+        <v>4</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>4</v>
+      </c>
+      <c r="F265">
+        <v>2</v>
+      </c>
+      <c r="G265">
+        <v>1</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>43</v>
+      </c>
+      <c r="C266">
+        <v>4</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>4</v>
+      </c>
+      <c r="F266">
+        <v>3</v>
+      </c>
+      <c r="G266">
+        <v>1</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>17</v>
+      </c>
+      <c r="C267">
+        <v>10</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>6</v>
+      </c>
+      <c r="F267">
+        <v>2</v>
+      </c>
+      <c r="G267">
+        <v>1</v>
+      </c>
+      <c r="H267">
+        <v>1</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>15</v>
+      </c>
+      <c r="L267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>94</v>
+      </c>
+      <c r="C268">
+        <v>6</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>10</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>1</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>15</v>
+      </c>
+      <c r="L268">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L455" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_02.xlsx
+++ b/pelada_sabado_2025_02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3667" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31DB36F9-CD2C-4078-B9A8-E810F81564E4}"/>
+  <xr:revisionPtr revIDLastSave="3782" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51FC03B3-2BB1-4617-A216-8C18459FCB78}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="97">
   <si>
     <t>Boneco</t>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>Hiago</t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>Marco</t>
   </si>
 </sst>
 </file>
@@ -650,11 +656,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O268"/>
+  <dimension ref="A1:O290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E267" sqref="E267"/>
+      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A292" sqref="A292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10065,6 +10071,776 @@
         <v>0</v>
       </c>
     </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>29</v>
+      </c>
+      <c r="C269">
+        <v>4</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+      <c r="E269">
+        <v>4</v>
+      </c>
+      <c r="F269">
+        <v>1</v>
+      </c>
+      <c r="G269">
+        <v>1</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>6</v>
+      </c>
+      <c r="C270">
+        <v>4</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+      <c r="E270">
+        <v>4</v>
+      </c>
+      <c r="F270">
+        <v>2</v>
+      </c>
+      <c r="G270">
+        <v>1</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>30</v>
+      </c>
+      <c r="C271">
+        <v>4</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+      <c r="E271">
+        <v>4</v>
+      </c>
+      <c r="F271">
+        <v>1</v>
+      </c>
+      <c r="G271">
+        <v>1</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>43</v>
+      </c>
+      <c r="C272">
+        <v>4</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="E272">
+        <v>4</v>
+      </c>
+      <c r="F272">
+        <v>3</v>
+      </c>
+      <c r="G272">
+        <v>1</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273">
+        <v>4</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+      <c r="E273">
+        <v>4</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>41</v>
+      </c>
+      <c r="C274">
+        <v>3</v>
+      </c>
+      <c r="D274">
+        <v>2</v>
+      </c>
+      <c r="E274">
+        <v>3</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>34</v>
+      </c>
+      <c r="C275">
+        <v>3</v>
+      </c>
+      <c r="D275">
+        <v>2</v>
+      </c>
+      <c r="E275">
+        <v>3</v>
+      </c>
+      <c r="F275">
+        <v>3</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>2</v>
+      </c>
+      <c r="C276">
+        <v>3</v>
+      </c>
+      <c r="D276">
+        <v>2</v>
+      </c>
+      <c r="E276">
+        <v>3</v>
+      </c>
+      <c r="F276">
+        <v>2</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>3</v>
+      </c>
+      <c r="D277">
+        <v>2</v>
+      </c>
+      <c r="E277">
+        <v>3</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>24</v>
+      </c>
+      <c r="C278">
+        <v>3</v>
+      </c>
+      <c r="D278">
+        <v>2</v>
+      </c>
+      <c r="E278">
+        <v>3</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
+      <c r="L278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>63</v>
+      </c>
+      <c r="C279">
+        <v>2</v>
+      </c>
+      <c r="D279">
+        <v>2</v>
+      </c>
+      <c r="E279">
+        <v>3</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>3</v>
+      </c>
+      <c r="C280">
+        <v>2</v>
+      </c>
+      <c r="D280">
+        <v>2</v>
+      </c>
+      <c r="E280">
+        <v>3</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="G280">
+        <v>1</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>27</v>
+      </c>
+      <c r="C281">
+        <v>2</v>
+      </c>
+      <c r="D281">
+        <v>2</v>
+      </c>
+      <c r="E281">
+        <v>3</v>
+      </c>
+      <c r="F281">
+        <v>1</v>
+      </c>
+      <c r="G281">
+        <v>1</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>38</v>
+      </c>
+      <c r="C282">
+        <v>2</v>
+      </c>
+      <c r="D282">
+        <v>2</v>
+      </c>
+      <c r="E282">
+        <v>3</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+      <c r="G282">
+        <v>1</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+      <c r="L282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>5</v>
+      </c>
+      <c r="C283">
+        <v>2</v>
+      </c>
+      <c r="D283">
+        <v>2</v>
+      </c>
+      <c r="E283">
+        <v>3</v>
+      </c>
+      <c r="F283">
+        <v>3</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283">
+        <v>1</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>23</v>
+      </c>
+      <c r="C284">
+        <v>3</v>
+      </c>
+      <c r="D284">
+        <v>3</v>
+      </c>
+      <c r="E284">
+        <v>2</v>
+      </c>
+      <c r="F284">
+        <v>4</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="H284">
+        <v>1</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>20</v>
+      </c>
+      <c r="C285">
+        <v>3</v>
+      </c>
+      <c r="D285">
+        <v>3</v>
+      </c>
+      <c r="E285">
+        <v>2</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>1</v>
+      </c>
+      <c r="H285">
+        <v>1</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>28</v>
+      </c>
+      <c r="C286">
+        <v>3</v>
+      </c>
+      <c r="D286">
+        <v>3</v>
+      </c>
+      <c r="E286">
+        <v>2</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+      <c r="H286">
+        <v>1</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>95</v>
+      </c>
+      <c r="C287">
+        <v>3</v>
+      </c>
+      <c r="D287">
+        <v>3</v>
+      </c>
+      <c r="E287">
+        <v>2</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>1</v>
+      </c>
+      <c r="H287">
+        <v>1</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>1</v>
+      </c>
+      <c r="C288">
+        <v>3</v>
+      </c>
+      <c r="D288">
+        <v>3</v>
+      </c>
+      <c r="E288">
+        <v>2</v>
+      </c>
+      <c r="F288">
+        <v>2</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>17</v>
+      </c>
+      <c r="C289">
+        <v>7</v>
+      </c>
+      <c r="D289">
+        <v>4</v>
+      </c>
+      <c r="E289">
+        <v>5</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>1</v>
+      </c>
+      <c r="H289">
+        <v>1</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>8</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>96</v>
+      </c>
+      <c r="C290">
+        <v>5</v>
+      </c>
+      <c r="D290">
+        <v>4</v>
+      </c>
+      <c r="E290">
+        <v>7</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>1</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+      <c r="I290">
+        <v>1</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>15</v>
+      </c>
+      <c r="L290">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L455" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_02.xlsx
+++ b/pelada_sabado_2025_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3782" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51FC03B3-2BB1-4617-A216-8C18459FCB78}"/>
+  <xr:revisionPtr revIDLastSave="3897" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52B62166-67B1-43BD-8991-23239B2BC6D5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="97">
   <si>
     <t>Boneco</t>
   </si>
@@ -656,11 +656,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O290"/>
+  <dimension ref="A1:O312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A292" sqref="A292"/>
+      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A313" sqref="A313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10841,6 +10841,776 @@
         <v>0</v>
       </c>
     </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>41</v>
+      </c>
+      <c r="C291">
+        <v>3</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+      <c r="E291">
+        <v>5</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>57</v>
+      </c>
+      <c r="C292">
+        <v>3</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+      <c r="E292">
+        <v>5</v>
+      </c>
+      <c r="F292">
+        <v>4</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>0</v>
+      </c>
+      <c r="L292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>24</v>
+      </c>
+      <c r="C293">
+        <v>3</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+      <c r="E293">
+        <v>5</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>38</v>
+      </c>
+      <c r="C294">
+        <v>3</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+      <c r="E294">
+        <v>5</v>
+      </c>
+      <c r="F294">
+        <v>3</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
+      <c r="L294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>27</v>
+      </c>
+      <c r="C295">
+        <v>3</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+      <c r="E295">
+        <v>5</v>
+      </c>
+      <c r="F295">
+        <v>1</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="I295">
+        <v>1</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>0</v>
+      </c>
+      <c r="L295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>2</v>
+      </c>
+      <c r="C296">
+        <v>7</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>4</v>
+      </c>
+      <c r="F296">
+        <v>4</v>
+      </c>
+      <c r="G296">
+        <v>1</v>
+      </c>
+      <c r="H296">
+        <v>1</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>0</v>
+      </c>
+      <c r="L296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>49</v>
+      </c>
+      <c r="C297">
+        <v>7</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>4</v>
+      </c>
+      <c r="F297">
+        <v>3</v>
+      </c>
+      <c r="G297">
+        <v>1</v>
+      </c>
+      <c r="H297">
+        <v>1</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>0</v>
+      </c>
+      <c r="L297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298">
+        <v>7</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <v>4</v>
+      </c>
+      <c r="F298">
+        <v>3</v>
+      </c>
+      <c r="G298">
+        <v>1</v>
+      </c>
+      <c r="H298">
+        <v>1</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
+      <c r="L298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>1</v>
+      </c>
+      <c r="C299">
+        <v>7</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <v>4</v>
+      </c>
+      <c r="F299">
+        <v>2</v>
+      </c>
+      <c r="G299">
+        <v>1</v>
+      </c>
+      <c r="H299">
+        <v>1</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+      <c r="L299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>32</v>
+      </c>
+      <c r="C300">
+        <v>7</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <v>4</v>
+      </c>
+      <c r="F300">
+        <v>1</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
+      <c r="H300">
+        <v>1</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>0</v>
+      </c>
+      <c r="L300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>6</v>
+      </c>
+      <c r="C301">
+        <v>4</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <v>5</v>
+      </c>
+      <c r="F301">
+        <v>1</v>
+      </c>
+      <c r="G301">
+        <v>1</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
+      <c r="L301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>59</v>
+      </c>
+      <c r="C302">
+        <v>4</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>5</v>
+      </c>
+      <c r="F302">
+        <v>2</v>
+      </c>
+      <c r="G302">
+        <v>1</v>
+      </c>
+      <c r="H302">
+        <v>0</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+      <c r="L302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>35</v>
+      </c>
+      <c r="C303">
+        <v>4</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <v>5</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+      <c r="G303">
+        <v>1</v>
+      </c>
+      <c r="H303">
+        <v>0</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
+        <v>0</v>
+      </c>
+      <c r="L303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>0</v>
+      </c>
+      <c r="C304">
+        <v>4</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>5</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="G304">
+        <v>1</v>
+      </c>
+      <c r="H304">
+        <v>0</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>0</v>
+      </c>
+      <c r="L304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>36</v>
+      </c>
+      <c r="C305">
+        <v>4</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+      <c r="E305">
+        <v>5</v>
+      </c>
+      <c r="F305">
+        <v>5</v>
+      </c>
+      <c r="G305">
+        <v>1</v>
+      </c>
+      <c r="H305">
+        <v>0</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>0</v>
+      </c>
+      <c r="L305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>29</v>
+      </c>
+      <c r="C306">
+        <v>4</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+      <c r="E306">
+        <v>4</v>
+      </c>
+      <c r="F306">
+        <v>3</v>
+      </c>
+      <c r="G306">
+        <v>1</v>
+      </c>
+      <c r="H306">
+        <v>0</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>0</v>
+      </c>
+      <c r="L306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>23</v>
+      </c>
+      <c r="C307">
+        <v>4</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+      <c r="E307">
+        <v>4</v>
+      </c>
+      <c r="F307">
+        <v>2</v>
+      </c>
+      <c r="G307">
+        <v>1</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>0</v>
+      </c>
+      <c r="L307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>20</v>
+      </c>
+      <c r="C308">
+        <v>4</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+      <c r="E308">
+        <v>4</v>
+      </c>
+      <c r="F308">
+        <v>2</v>
+      </c>
+      <c r="G308">
+        <v>1</v>
+      </c>
+      <c r="H308">
+        <v>0</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>0</v>
+      </c>
+      <c r="L308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>53</v>
+      </c>
+      <c r="C309">
+        <v>4</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+      <c r="E309">
+        <v>4</v>
+      </c>
+      <c r="F309">
+        <v>1</v>
+      </c>
+      <c r="G309">
+        <v>1</v>
+      </c>
+      <c r="H309">
+        <v>0</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>0</v>
+      </c>
+      <c r="L309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>3</v>
+      </c>
+      <c r="C310">
+        <v>4</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+      <c r="E310">
+        <v>4</v>
+      </c>
+      <c r="F310">
+        <v>1</v>
+      </c>
+      <c r="G310">
+        <v>1</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310">
+        <v>0</v>
+      </c>
+      <c r="L310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>17</v>
+      </c>
+      <c r="C311">
+        <v>11</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+      <c r="E311">
+        <v>7</v>
+      </c>
+      <c r="F311">
+        <v>1</v>
+      </c>
+      <c r="G311">
+        <v>1</v>
+      </c>
+      <c r="H311">
+        <v>1</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>15</v>
+      </c>
+      <c r="L311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>89</v>
+      </c>
+      <c r="C312">
+        <v>7</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+      <c r="E312">
+        <v>11</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312">
+        <v>1</v>
+      </c>
+      <c r="H312">
+        <v>0</v>
+      </c>
+      <c r="I312">
+        <v>1</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>19</v>
+      </c>
+      <c r="L312">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L455" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_02.xlsx
+++ b/pelada_sabado_2025_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3897" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52B62166-67B1-43BD-8991-23239B2BC6D5}"/>
+  <xr:revisionPtr revIDLastSave="4008" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8626B6D7-C062-463D-BE34-66EFA3736270}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="97">
   <si>
     <t>Boneco</t>
   </si>
@@ -656,11 +656,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O312"/>
+  <dimension ref="A1:O333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A313" sqref="A313"/>
+      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A335" sqref="A335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11611,6 +11611,741 @@
         <v>0</v>
       </c>
     </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>27</v>
+      </c>
+      <c r="C313">
+        <v>5</v>
+      </c>
+      <c r="D313">
+        <v>2</v>
+      </c>
+      <c r="E313">
+        <v>3</v>
+      </c>
+      <c r="F313">
+        <v>1</v>
+      </c>
+      <c r="G313">
+        <v>1</v>
+      </c>
+      <c r="H313">
+        <v>1</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>0</v>
+      </c>
+      <c r="L313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>59</v>
+      </c>
+      <c r="C314">
+        <v>5</v>
+      </c>
+      <c r="D314">
+        <v>2</v>
+      </c>
+      <c r="E314">
+        <v>3</v>
+      </c>
+      <c r="F314">
+        <v>3</v>
+      </c>
+      <c r="G314">
+        <v>1</v>
+      </c>
+      <c r="H314">
+        <v>1</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314">
+        <v>0</v>
+      </c>
+      <c r="L314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>73</v>
+      </c>
+      <c r="C315">
+        <v>5</v>
+      </c>
+      <c r="D315">
+        <v>2</v>
+      </c>
+      <c r="E315">
+        <v>3</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>1</v>
+      </c>
+      <c r="H315">
+        <v>1</v>
+      </c>
+      <c r="I315">
+        <v>0</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="K315">
+        <v>0</v>
+      </c>
+      <c r="L315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>38</v>
+      </c>
+      <c r="C316">
+        <v>5</v>
+      </c>
+      <c r="D316">
+        <v>2</v>
+      </c>
+      <c r="E316">
+        <v>3</v>
+      </c>
+      <c r="F316">
+        <v>4</v>
+      </c>
+      <c r="G316">
+        <v>1</v>
+      </c>
+      <c r="H316">
+        <v>1</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="K316">
+        <v>0</v>
+      </c>
+      <c r="L316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>34</v>
+      </c>
+      <c r="C317">
+        <v>5</v>
+      </c>
+      <c r="D317">
+        <v>2</v>
+      </c>
+      <c r="E317">
+        <v>3</v>
+      </c>
+      <c r="F317">
+        <v>4</v>
+      </c>
+      <c r="G317">
+        <v>1</v>
+      </c>
+      <c r="H317">
+        <v>1</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="K317">
+        <v>0</v>
+      </c>
+      <c r="L317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>24</v>
+      </c>
+      <c r="C318">
+        <v>4</v>
+      </c>
+      <c r="D318">
+        <v>4</v>
+      </c>
+      <c r="E318">
+        <v>2</v>
+      </c>
+      <c r="F318">
+        <v>3</v>
+      </c>
+      <c r="G318">
+        <v>1</v>
+      </c>
+      <c r="H318">
+        <v>0</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="K318">
+        <v>0</v>
+      </c>
+      <c r="L318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>29</v>
+      </c>
+      <c r="C319">
+        <v>4</v>
+      </c>
+      <c r="D319">
+        <v>4</v>
+      </c>
+      <c r="E319">
+        <v>2</v>
+      </c>
+      <c r="F319">
+        <v>1</v>
+      </c>
+      <c r="G319">
+        <v>1</v>
+      </c>
+      <c r="H319">
+        <v>0</v>
+      </c>
+      <c r="I319">
+        <v>0</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="K319">
+        <v>0</v>
+      </c>
+      <c r="L319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>1</v>
+      </c>
+      <c r="C320">
+        <v>4</v>
+      </c>
+      <c r="D320">
+        <v>4</v>
+      </c>
+      <c r="E320">
+        <v>2</v>
+      </c>
+      <c r="F320">
+        <v>2</v>
+      </c>
+      <c r="G320">
+        <v>1</v>
+      </c>
+      <c r="H320">
+        <v>0</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+      <c r="J320">
+        <v>0</v>
+      </c>
+      <c r="K320">
+        <v>0</v>
+      </c>
+      <c r="L320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>36</v>
+      </c>
+      <c r="C321">
+        <v>4</v>
+      </c>
+      <c r="D321">
+        <v>4</v>
+      </c>
+      <c r="E321">
+        <v>2</v>
+      </c>
+      <c r="F321">
+        <v>5</v>
+      </c>
+      <c r="G321">
+        <v>1</v>
+      </c>
+      <c r="H321">
+        <v>0</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321">
+        <v>0</v>
+      </c>
+      <c r="L321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>2</v>
+      </c>
+      <c r="C322">
+        <v>4</v>
+      </c>
+      <c r="D322">
+        <v>4</v>
+      </c>
+      <c r="E322">
+        <v>2</v>
+      </c>
+      <c r="F322">
+        <v>1</v>
+      </c>
+      <c r="G322">
+        <v>1</v>
+      </c>
+      <c r="H322">
+        <v>0</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="K322">
+        <v>0</v>
+      </c>
+      <c r="L322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>3</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323">
+        <v>4</v>
+      </c>
+      <c r="E323">
+        <v>2</v>
+      </c>
+      <c r="F323">
+        <v>1</v>
+      </c>
+      <c r="G323">
+        <v>1</v>
+      </c>
+      <c r="H323">
+        <v>0</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323">
+        <v>0</v>
+      </c>
+      <c r="L323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>6</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>4</v>
+      </c>
+      <c r="E324">
+        <v>2</v>
+      </c>
+      <c r="F324">
+        <v>2</v>
+      </c>
+      <c r="G324">
+        <v>1</v>
+      </c>
+      <c r="H324">
+        <v>0</v>
+      </c>
+      <c r="I324">
+        <v>0</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="K324">
+        <v>0</v>
+      </c>
+      <c r="L324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>49</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>4</v>
+      </c>
+      <c r="E325">
+        <v>2</v>
+      </c>
+      <c r="F325">
+        <v>3</v>
+      </c>
+      <c r="G325">
+        <v>1</v>
+      </c>
+      <c r="H325">
+        <v>0</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>0</v>
+      </c>
+      <c r="L325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>26</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>4</v>
+      </c>
+      <c r="E326">
+        <v>2</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+      <c r="G326">
+        <v>1</v>
+      </c>
+      <c r="H326">
+        <v>0</v>
+      </c>
+      <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326">
+        <v>0</v>
+      </c>
+      <c r="L326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>20</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>4</v>
+      </c>
+      <c r="E327">
+        <v>2</v>
+      </c>
+      <c r="F327">
+        <v>2</v>
+      </c>
+      <c r="G327">
+        <v>1</v>
+      </c>
+      <c r="H327">
+        <v>0</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+      <c r="K327">
+        <v>0</v>
+      </c>
+      <c r="L327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>28</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328">
+        <v>2</v>
+      </c>
+      <c r="E328">
+        <v>4</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+      <c r="G328">
+        <v>1</v>
+      </c>
+      <c r="H328">
+        <v>0</v>
+      </c>
+      <c r="I328">
+        <v>1</v>
+      </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
+      <c r="K328">
+        <v>0</v>
+      </c>
+      <c r="L328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>23</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>2</v>
+      </c>
+      <c r="E329">
+        <v>4</v>
+      </c>
+      <c r="F329">
+        <v>2</v>
+      </c>
+      <c r="G329">
+        <v>1</v>
+      </c>
+      <c r="H329">
+        <v>0</v>
+      </c>
+      <c r="I329">
+        <v>1</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329">
+        <v>0</v>
+      </c>
+      <c r="L329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>32</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>2</v>
+      </c>
+      <c r="E330">
+        <v>4</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+      <c r="G330">
+        <v>1</v>
+      </c>
+      <c r="H330">
+        <v>0</v>
+      </c>
+      <c r="I330">
+        <v>1</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="K330">
+        <v>0</v>
+      </c>
+      <c r="L330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>50</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331">
+        <v>2</v>
+      </c>
+      <c r="E331">
+        <v>4</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+      <c r="G331">
+        <v>1</v>
+      </c>
+      <c r="H331">
+        <v>0</v>
+      </c>
+      <c r="I331">
+        <v>1</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331">
+        <v>0</v>
+      </c>
+      <c r="L331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>17</v>
+      </c>
+      <c r="C332">
+        <v>5</v>
+      </c>
+      <c r="D332">
+        <v>4</v>
+      </c>
+      <c r="E332">
+        <v>6</v>
+      </c>
+      <c r="F332">
+        <v>1</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+      <c r="H332">
+        <v>0</v>
+      </c>
+      <c r="I332">
+        <v>1</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <v>15</v>
+      </c>
+      <c r="L332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>96</v>
+      </c>
+      <c r="C333">
+        <v>6</v>
+      </c>
+      <c r="D333">
+        <v>4</v>
+      </c>
+      <c r="E333">
+        <v>5</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333">
+        <v>1</v>
+      </c>
+      <c r="H333">
+        <v>1</v>
+      </c>
+      <c r="I333">
+        <v>0</v>
+      </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
+      <c r="K333">
+        <v>21</v>
+      </c>
+      <c r="L333">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L455" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_02.xlsx
+++ b/pelada_sabado_2025_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4008" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8626B6D7-C062-463D-BE34-66EFA3736270}"/>
+  <xr:revisionPtr revIDLastSave="4123" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A547D23-003B-4751-B390-EA7E8230F2FA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jogadores" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294918091" uniqueCount="96">
   <si>
     <t>Boneco</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>Marco</t>
+  </si>
+  <si>
+    <t>Neneca</t>
   </si>
 </sst>
 </file>
@@ -656,11 +659,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O333"/>
+  <dimension ref="A1:O355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A335" sqref="A335"/>
+      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A355" sqref="A355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12346,6 +12349,776 @@
         <v>0</v>
       </c>
     </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>23</v>
+      </c>
+      <c r="C334">
+        <v>3</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334">
+        <v>5</v>
+      </c>
+      <c r="F334">
+        <v>2</v>
+      </c>
+      <c r="G334">
+        <v>1</v>
+      </c>
+      <c r="H334">
+        <v>0</v>
+      </c>
+      <c r="I334">
+        <v>1</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334">
+        <v>0</v>
+      </c>
+      <c r="L334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>35</v>
+      </c>
+      <c r="C335">
+        <v>3</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <v>5</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+      <c r="G335">
+        <v>1</v>
+      </c>
+      <c r="H335">
+        <v>0</v>
+      </c>
+      <c r="I335">
+        <v>1</v>
+      </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
+      <c r="K335">
+        <v>0</v>
+      </c>
+      <c r="L335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>74</v>
+      </c>
+      <c r="C336">
+        <v>3</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336">
+        <v>5</v>
+      </c>
+      <c r="F336">
+        <v>1</v>
+      </c>
+      <c r="G336">
+        <v>1</v>
+      </c>
+      <c r="H336">
+        <v>0</v>
+      </c>
+      <c r="I336">
+        <v>1</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+      <c r="K336">
+        <v>0</v>
+      </c>
+      <c r="L336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>24</v>
+      </c>
+      <c r="C337">
+        <v>3</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337">
+        <v>5</v>
+      </c>
+      <c r="F337">
+        <v>1</v>
+      </c>
+      <c r="G337">
+        <v>1</v>
+      </c>
+      <c r="H337">
+        <v>0</v>
+      </c>
+      <c r="I337">
+        <v>1</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337">
+        <v>0</v>
+      </c>
+      <c r="L337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>53</v>
+      </c>
+      <c r="C338">
+        <v>3</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>5</v>
+      </c>
+      <c r="F338">
+        <v>2</v>
+      </c>
+      <c r="G338">
+        <v>1</v>
+      </c>
+      <c r="H338">
+        <v>0</v>
+      </c>
+      <c r="I338">
+        <v>1</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338">
+        <v>0</v>
+      </c>
+      <c r="L338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>57</v>
+      </c>
+      <c r="C339">
+        <v>5</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+      <c r="E339">
+        <v>4</v>
+      </c>
+      <c r="F339">
+        <v>5</v>
+      </c>
+      <c r="G339">
+        <v>1</v>
+      </c>
+      <c r="H339">
+        <v>1</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>0</v>
+      </c>
+      <c r="L339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>29</v>
+      </c>
+      <c r="C340">
+        <v>5</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+      <c r="E340">
+        <v>4</v>
+      </c>
+      <c r="F340">
+        <v>4</v>
+      </c>
+      <c r="G340">
+        <v>1</v>
+      </c>
+      <c r="H340">
+        <v>1</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340">
+        <v>0</v>
+      </c>
+      <c r="L340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>2</v>
+      </c>
+      <c r="C341">
+        <v>5</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+      <c r="E341">
+        <v>4</v>
+      </c>
+      <c r="F341">
+        <v>3</v>
+      </c>
+      <c r="G341">
+        <v>1</v>
+      </c>
+      <c r="H341">
+        <v>1</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>0</v>
+      </c>
+      <c r="L341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>28</v>
+      </c>
+      <c r="C342">
+        <v>5</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+      <c r="E342">
+        <v>4</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+      <c r="G342">
+        <v>1</v>
+      </c>
+      <c r="H342">
+        <v>1</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>0</v>
+      </c>
+      <c r="L342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>51</v>
+      </c>
+      <c r="C343">
+        <v>5</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+      <c r="E343">
+        <v>4</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+      <c r="G343">
+        <v>1</v>
+      </c>
+      <c r="H343">
+        <v>1</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343">
+        <v>0</v>
+      </c>
+      <c r="L343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>59</v>
+      </c>
+      <c r="C344">
+        <v>4</v>
+      </c>
+      <c r="D344">
+        <v>2</v>
+      </c>
+      <c r="E344">
+        <v>3</v>
+      </c>
+      <c r="F344">
+        <v>1</v>
+      </c>
+      <c r="G344">
+        <v>1</v>
+      </c>
+      <c r="H344">
+        <v>0</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="K344">
+        <v>0</v>
+      </c>
+      <c r="L344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>6</v>
+      </c>
+      <c r="C345">
+        <v>4</v>
+      </c>
+      <c r="D345">
+        <v>2</v>
+      </c>
+      <c r="E345">
+        <v>3</v>
+      </c>
+      <c r="F345">
+        <v>3</v>
+      </c>
+      <c r="G345">
+        <v>1</v>
+      </c>
+      <c r="H345">
+        <v>0</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="K345">
+        <v>0</v>
+      </c>
+      <c r="L345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>27</v>
+      </c>
+      <c r="C346">
+        <v>4</v>
+      </c>
+      <c r="D346">
+        <v>2</v>
+      </c>
+      <c r="E346">
+        <v>3</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+      <c r="G346">
+        <v>1</v>
+      </c>
+      <c r="H346">
+        <v>0</v>
+      </c>
+      <c r="I346">
+        <v>0</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346">
+        <v>0</v>
+      </c>
+      <c r="L346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>30</v>
+      </c>
+      <c r="C347">
+        <v>4</v>
+      </c>
+      <c r="D347">
+        <v>2</v>
+      </c>
+      <c r="E347">
+        <v>3</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+      <c r="G347">
+        <v>1</v>
+      </c>
+      <c r="H347">
+        <v>0</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>0</v>
+      </c>
+      <c r="L347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>33</v>
+      </c>
+      <c r="C348">
+        <v>4</v>
+      </c>
+      <c r="D348">
+        <v>2</v>
+      </c>
+      <c r="E348">
+        <v>3</v>
+      </c>
+      <c r="F348">
+        <v>4</v>
+      </c>
+      <c r="G348">
+        <v>1</v>
+      </c>
+      <c r="H348">
+        <v>0</v>
+      </c>
+      <c r="I348">
+        <v>0</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348">
+        <v>0</v>
+      </c>
+      <c r="L348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>3</v>
+      </c>
+      <c r="C349">
+        <v>4</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+      <c r="E349">
+        <v>4</v>
+      </c>
+      <c r="F349">
+        <v>1</v>
+      </c>
+      <c r="G349">
+        <v>1</v>
+      </c>
+      <c r="H349">
+        <v>0</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>0</v>
+      </c>
+      <c r="L349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>20</v>
+      </c>
+      <c r="C350">
+        <v>4</v>
+      </c>
+      <c r="D350">
+        <v>1</v>
+      </c>
+      <c r="E350">
+        <v>4</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350">
+        <v>1</v>
+      </c>
+      <c r="H350">
+        <v>0</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350">
+        <v>0</v>
+      </c>
+      <c r="L350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>5</v>
+      </c>
+      <c r="C351">
+        <v>4</v>
+      </c>
+      <c r="D351">
+        <v>1</v>
+      </c>
+      <c r="E351">
+        <v>4</v>
+      </c>
+      <c r="F351">
+        <v>4</v>
+      </c>
+      <c r="G351">
+        <v>1</v>
+      </c>
+      <c r="H351">
+        <v>0</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>0</v>
+      </c>
+      <c r="L351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>1</v>
+      </c>
+      <c r="C352">
+        <v>4</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
+      <c r="E352">
+        <v>4</v>
+      </c>
+      <c r="F352">
+        <v>3</v>
+      </c>
+      <c r="G352">
+        <v>1</v>
+      </c>
+      <c r="H352">
+        <v>0</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352">
+        <v>0</v>
+      </c>
+      <c r="L352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>25</v>
+      </c>
+      <c r="C353">
+        <v>4</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+      <c r="E353">
+        <v>4</v>
+      </c>
+      <c r="F353">
+        <v>3</v>
+      </c>
+      <c r="G353">
+        <v>1</v>
+      </c>
+      <c r="H353">
+        <v>0</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="K353">
+        <v>0</v>
+      </c>
+      <c r="L353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>17</v>
+      </c>
+      <c r="C354">
+        <v>8</v>
+      </c>
+      <c r="D354">
+        <v>1</v>
+      </c>
+      <c r="E354">
+        <v>8</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354">
+        <v>1</v>
+      </c>
+      <c r="H354">
+        <v>1</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>22</v>
+      </c>
+      <c r="L354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>97</v>
+      </c>
+      <c r="C355">
+        <v>8</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+      <c r="E355">
+        <v>8</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355">
+        <v>1</v>
+      </c>
+      <c r="H355">
+        <v>0</v>
+      </c>
+      <c r="I355">
+        <v>1</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>14</v>
+      </c>
+      <c r="L355">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L455" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_02.xlsx
+++ b/pelada_sabado_2025_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4123" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A547D23-003B-4751-B390-EA7E8230F2FA}"/>
+  <xr:revisionPtr revIDLastSave="4124" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD97FF0A-E4A7-4532-BB41-A5FD0E9D454C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294918091" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="98">
   <si>
     <t>Boneco</t>
   </si>
@@ -663,7 +663,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A355" sqref="A355"/>
+      <selection pane="bottomLeft" activeCell="A349" sqref="A349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12841,7 +12841,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C348">
         <v>4</v>

--- a/pelada_sabado_2025_02.xlsx
+++ b/pelada_sabado_2025_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4124" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD97FF0A-E4A7-4532-BB41-A5FD0E9D454C}"/>
+  <xr:revisionPtr revIDLastSave="4252" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2A2FEF2-8CAE-48B8-9D69-8CBE8A96C1F2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="100">
   <si>
     <t>Boneco</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>Neneca</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>George</t>
   </si>
 </sst>
 </file>
@@ -659,11 +665,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O355"/>
+  <dimension ref="A1:O378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A349" sqref="A349"/>
+      <pane ySplit="1" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A378" sqref="A378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13119,6 +13125,811 @@
         <v>0</v>
       </c>
     </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>25</v>
+      </c>
+      <c r="C356">
+        <v>3</v>
+      </c>
+      <c r="D356">
+        <v>2</v>
+      </c>
+      <c r="E356">
+        <v>3</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356">
+        <v>1</v>
+      </c>
+      <c r="H356">
+        <v>0</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>0</v>
+      </c>
+      <c r="L356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>3</v>
+      </c>
+      <c r="C357">
+        <v>3</v>
+      </c>
+      <c r="D357">
+        <v>2</v>
+      </c>
+      <c r="E357">
+        <v>3</v>
+      </c>
+      <c r="F357">
+        <v>1</v>
+      </c>
+      <c r="G357">
+        <v>1</v>
+      </c>
+      <c r="H357">
+        <v>0</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>0</v>
+      </c>
+      <c r="L357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>84</v>
+      </c>
+      <c r="C358">
+        <v>3</v>
+      </c>
+      <c r="D358">
+        <v>2</v>
+      </c>
+      <c r="E358">
+        <v>3</v>
+      </c>
+      <c r="F358">
+        <v>2</v>
+      </c>
+      <c r="G358">
+        <v>1</v>
+      </c>
+      <c r="H358">
+        <v>0</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>0</v>
+      </c>
+      <c r="L358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>5</v>
+      </c>
+      <c r="C359">
+        <v>3</v>
+      </c>
+      <c r="D359">
+        <v>2</v>
+      </c>
+      <c r="E359">
+        <v>3</v>
+      </c>
+      <c r="F359">
+        <v>1</v>
+      </c>
+      <c r="G359">
+        <v>1</v>
+      </c>
+      <c r="H359">
+        <v>0</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <v>0</v>
+      </c>
+      <c r="L359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>49</v>
+      </c>
+      <c r="C360">
+        <v>3</v>
+      </c>
+      <c r="D360">
+        <v>2</v>
+      </c>
+      <c r="E360">
+        <v>3</v>
+      </c>
+      <c r="F360">
+        <v>1</v>
+      </c>
+      <c r="G360">
+        <v>1</v>
+      </c>
+      <c r="H360">
+        <v>0</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>0</v>
+      </c>
+      <c r="L360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>82</v>
+      </c>
+      <c r="C361">
+        <v>2</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+      <c r="E361">
+        <v>4</v>
+      </c>
+      <c r="F361">
+        <v>1</v>
+      </c>
+      <c r="G361">
+        <v>1</v>
+      </c>
+      <c r="H361">
+        <v>0</v>
+      </c>
+      <c r="I361">
+        <v>1</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>0</v>
+      </c>
+      <c r="L361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>4</v>
+      </c>
+      <c r="C362">
+        <v>2</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+      <c r="E362">
+        <v>4</v>
+      </c>
+      <c r="F362">
+        <v>3</v>
+      </c>
+      <c r="G362">
+        <v>1</v>
+      </c>
+      <c r="H362">
+        <v>0</v>
+      </c>
+      <c r="I362">
+        <v>1</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>0</v>
+      </c>
+      <c r="L362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>2</v>
+      </c>
+      <c r="C363">
+        <v>2</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+      <c r="E363">
+        <v>4</v>
+      </c>
+      <c r="F363">
+        <v>1</v>
+      </c>
+      <c r="G363">
+        <v>1</v>
+      </c>
+      <c r="H363">
+        <v>0</v>
+      </c>
+      <c r="I363">
+        <v>1</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>0</v>
+      </c>
+      <c r="L363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>28</v>
+      </c>
+      <c r="C364">
+        <v>2</v>
+      </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
+      <c r="E364">
+        <v>4</v>
+      </c>
+      <c r="F364">
+        <v>0</v>
+      </c>
+      <c r="G364">
+        <v>1</v>
+      </c>
+      <c r="H364">
+        <v>0</v>
+      </c>
+      <c r="I364">
+        <v>1</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>0</v>
+      </c>
+      <c r="L364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>98</v>
+      </c>
+      <c r="C365">
+        <v>2</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+      <c r="E365">
+        <v>4</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+      <c r="G365">
+        <v>1</v>
+      </c>
+      <c r="H365">
+        <v>0</v>
+      </c>
+      <c r="I365">
+        <v>1</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365">
+        <v>0</v>
+      </c>
+      <c r="L365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>50</v>
+      </c>
+      <c r="C366">
+        <v>4</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>5</v>
+      </c>
+      <c r="F366">
+        <v>0</v>
+      </c>
+      <c r="G366">
+        <v>1</v>
+      </c>
+      <c r="H366">
+        <v>0</v>
+      </c>
+      <c r="I366">
+        <v>0</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+      <c r="K366">
+        <v>0</v>
+      </c>
+      <c r="L366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>79</v>
+      </c>
+      <c r="C367">
+        <v>4</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367">
+        <v>5</v>
+      </c>
+      <c r="F367">
+        <v>3</v>
+      </c>
+      <c r="G367">
+        <v>1</v>
+      </c>
+      <c r="H367">
+        <v>0</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367">
+        <v>0</v>
+      </c>
+      <c r="L367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>53</v>
+      </c>
+      <c r="C368">
+        <v>4</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368">
+        <v>5</v>
+      </c>
+      <c r="F368">
+        <v>0</v>
+      </c>
+      <c r="G368">
+        <v>1</v>
+      </c>
+      <c r="H368">
+        <v>0</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+      <c r="K368">
+        <v>0</v>
+      </c>
+      <c r="L368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>59</v>
+      </c>
+      <c r="C369">
+        <v>4</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369">
+        <v>5</v>
+      </c>
+      <c r="F369">
+        <v>2</v>
+      </c>
+      <c r="G369">
+        <v>1</v>
+      </c>
+      <c r="H369">
+        <v>0</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+      <c r="K369">
+        <v>0</v>
+      </c>
+      <c r="L369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>6</v>
+      </c>
+      <c r="C370">
+        <v>4</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+      <c r="E370">
+        <v>5</v>
+      </c>
+      <c r="F370">
+        <v>3</v>
+      </c>
+      <c r="G370">
+        <v>1</v>
+      </c>
+      <c r="H370">
+        <v>0</v>
+      </c>
+      <c r="I370">
+        <v>0</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+      <c r="K370">
+        <v>0</v>
+      </c>
+      <c r="L370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>34</v>
+      </c>
+      <c r="C371">
+        <v>5</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+      <c r="E371">
+        <v>2</v>
+      </c>
+      <c r="F371">
+        <v>2</v>
+      </c>
+      <c r="G371">
+        <v>1</v>
+      </c>
+      <c r="H371">
+        <v>1</v>
+      </c>
+      <c r="I371">
+        <v>0</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>0</v>
+      </c>
+      <c r="L371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>36</v>
+      </c>
+      <c r="C372">
+        <v>5</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+      <c r="E372">
+        <v>2</v>
+      </c>
+      <c r="F372">
+        <v>6</v>
+      </c>
+      <c r="G372">
+        <v>1</v>
+      </c>
+      <c r="H372">
+        <v>1</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>0</v>
+      </c>
+      <c r="L372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>21</v>
+      </c>
+      <c r="C373">
+        <v>5</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+      <c r="E373">
+        <v>2</v>
+      </c>
+      <c r="F373">
+        <v>1</v>
+      </c>
+      <c r="G373">
+        <v>1</v>
+      </c>
+      <c r="H373">
+        <v>1</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373">
+        <v>0</v>
+      </c>
+      <c r="L373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>30</v>
+      </c>
+      <c r="C374">
+        <v>5</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+      <c r="E374">
+        <v>2</v>
+      </c>
+      <c r="F374">
+        <v>0</v>
+      </c>
+      <c r="G374">
+        <v>1</v>
+      </c>
+      <c r="H374">
+        <v>1</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+      <c r="K374">
+        <v>0</v>
+      </c>
+      <c r="L374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>20</v>
+      </c>
+      <c r="C375">
+        <v>5</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+      <c r="E375">
+        <v>2</v>
+      </c>
+      <c r="F375">
+        <v>0</v>
+      </c>
+      <c r="G375">
+        <v>1</v>
+      </c>
+      <c r="H375">
+        <v>1</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <v>0</v>
+      </c>
+      <c r="L375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>17</v>
+      </c>
+      <c r="C376">
+        <v>5</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="E376">
+        <v>5</v>
+      </c>
+      <c r="F376">
+        <v>0</v>
+      </c>
+      <c r="G376">
+        <v>1</v>
+      </c>
+      <c r="H376">
+        <v>0</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376">
+        <v>10</v>
+      </c>
+      <c r="L376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>99</v>
+      </c>
+      <c r="C377">
+        <v>4</v>
+      </c>
+      <c r="D377">
+        <v>2</v>
+      </c>
+      <c r="E377">
+        <v>6</v>
+      </c>
+      <c r="F377">
+        <v>0</v>
+      </c>
+      <c r="G377">
+        <v>1</v>
+      </c>
+      <c r="H377">
+        <v>0</v>
+      </c>
+      <c r="I377">
+        <v>1</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+      <c r="K377">
+        <v>8</v>
+      </c>
+      <c r="L377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>45</v>
+      </c>
+      <c r="C378">
+        <v>5</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+      <c r="E378">
+        <v>3</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+      <c r="G378">
+        <v>1</v>
+      </c>
+      <c r="H378">
+        <v>1</v>
+      </c>
+      <c r="I378">
+        <v>0</v>
+      </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
+      <c r="K378">
+        <v>6</v>
+      </c>
+      <c r="L378">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L455" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_02.xlsx
+++ b/pelada_sabado_2025_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4252" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2A2FEF2-8CAE-48B8-9D69-8CBE8A96C1F2}"/>
+  <xr:revisionPtr revIDLastSave="4340" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{042A14E7-900E-4DE5-A068-40D45673D4B6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="100">
   <si>
     <t>Boneco</t>
   </si>
@@ -665,11 +665,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O378"/>
+  <dimension ref="A1:O398"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A361" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A378" sqref="A378"/>
+      <pane ySplit="1" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B396" sqref="B396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13930,6 +13930,706 @@
         <v>0</v>
       </c>
     </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>20</v>
+      </c>
+      <c r="C379">
+        <v>6</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
+      </c>
+      <c r="E379">
+        <v>3</v>
+      </c>
+      <c r="F379">
+        <v>3</v>
+      </c>
+      <c r="G379">
+        <v>1</v>
+      </c>
+      <c r="H379">
+        <v>1</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+      <c r="K379">
+        <v>0</v>
+      </c>
+      <c r="L379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>3</v>
+      </c>
+      <c r="C380">
+        <v>6</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+      <c r="E380">
+        <v>3</v>
+      </c>
+      <c r="F380">
+        <v>1</v>
+      </c>
+      <c r="G380">
+        <v>1</v>
+      </c>
+      <c r="H380">
+        <v>1</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380">
+        <v>0</v>
+      </c>
+      <c r="L380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>29</v>
+      </c>
+      <c r="C381">
+        <v>6</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+      <c r="E381">
+        <v>3</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+      <c r="G381">
+        <v>1</v>
+      </c>
+      <c r="H381">
+        <v>1</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381">
+        <v>0</v>
+      </c>
+      <c r="L381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>23</v>
+      </c>
+      <c r="C382">
+        <v>6</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+      <c r="E382">
+        <v>3</v>
+      </c>
+      <c r="F382">
+        <v>3</v>
+      </c>
+      <c r="G382">
+        <v>1</v>
+      </c>
+      <c r="H382">
+        <v>1</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+      <c r="K382">
+        <v>0</v>
+      </c>
+      <c r="L382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>4</v>
+      </c>
+      <c r="C383">
+        <v>6</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+      <c r="E383">
+        <v>3</v>
+      </c>
+      <c r="F383">
+        <v>3</v>
+      </c>
+      <c r="G383">
+        <v>1</v>
+      </c>
+      <c r="H383">
+        <v>1</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383">
+        <v>0</v>
+      </c>
+      <c r="K383">
+        <v>0</v>
+      </c>
+      <c r="L383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>34</v>
+      </c>
+      <c r="C384">
+        <v>2</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+      <c r="E384">
+        <v>5</v>
+      </c>
+      <c r="F384">
+        <v>2</v>
+      </c>
+      <c r="G384">
+        <v>1</v>
+      </c>
+      <c r="H384">
+        <v>0</v>
+      </c>
+      <c r="I384">
+        <v>1</v>
+      </c>
+      <c r="J384">
+        <v>0</v>
+      </c>
+      <c r="K384">
+        <v>0</v>
+      </c>
+      <c r="L384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>53</v>
+      </c>
+      <c r="C385">
+        <v>2</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+      <c r="E385">
+        <v>5</v>
+      </c>
+      <c r="F385">
+        <v>1</v>
+      </c>
+      <c r="G385">
+        <v>1</v>
+      </c>
+      <c r="H385">
+        <v>0</v>
+      </c>
+      <c r="I385">
+        <v>1</v>
+      </c>
+      <c r="J385">
+        <v>0</v>
+      </c>
+      <c r="K385">
+        <v>0</v>
+      </c>
+      <c r="L385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A386" t="s">
+        <v>28</v>
+      </c>
+      <c r="C386">
+        <v>2</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+      <c r="E386">
+        <v>5</v>
+      </c>
+      <c r="F386">
+        <v>1</v>
+      </c>
+      <c r="G386">
+        <v>1</v>
+      </c>
+      <c r="H386">
+        <v>0</v>
+      </c>
+      <c r="I386">
+        <v>1</v>
+      </c>
+      <c r="J386">
+        <v>0</v>
+      </c>
+      <c r="K386">
+        <v>0</v>
+      </c>
+      <c r="L386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
+        <v>27</v>
+      </c>
+      <c r="C387">
+        <v>2</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+      <c r="E387">
+        <v>5</v>
+      </c>
+      <c r="F387">
+        <v>0</v>
+      </c>
+      <c r="G387">
+        <v>1</v>
+      </c>
+      <c r="H387">
+        <v>0</v>
+      </c>
+      <c r="I387">
+        <v>1</v>
+      </c>
+      <c r="J387">
+        <v>0</v>
+      </c>
+      <c r="K387">
+        <v>0</v>
+      </c>
+      <c r="L387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
+        <v>0</v>
+      </c>
+      <c r="C388">
+        <v>2</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+      <c r="E388">
+        <v>5</v>
+      </c>
+      <c r="F388">
+        <v>1</v>
+      </c>
+      <c r="G388">
+        <v>1</v>
+      </c>
+      <c r="H388">
+        <v>0</v>
+      </c>
+      <c r="I388">
+        <v>1</v>
+      </c>
+      <c r="J388">
+        <v>0</v>
+      </c>
+      <c r="K388">
+        <v>0</v>
+      </c>
+      <c r="L388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>24</v>
+      </c>
+      <c r="C389">
+        <v>5</v>
+      </c>
+      <c r="D389">
+        <v>0</v>
+      </c>
+      <c r="E389">
+        <v>5</v>
+      </c>
+      <c r="F389">
+        <v>1</v>
+      </c>
+      <c r="G389">
+        <v>1</v>
+      </c>
+      <c r="H389">
+        <v>0</v>
+      </c>
+      <c r="I389">
+        <v>0</v>
+      </c>
+      <c r="J389">
+        <v>0</v>
+      </c>
+      <c r="K389">
+        <v>0</v>
+      </c>
+      <c r="L389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>36</v>
+      </c>
+      <c r="C390">
+        <v>5</v>
+      </c>
+      <c r="D390">
+        <v>0</v>
+      </c>
+      <c r="E390">
+        <v>5</v>
+      </c>
+      <c r="F390">
+        <v>3</v>
+      </c>
+      <c r="G390">
+        <v>1</v>
+      </c>
+      <c r="H390">
+        <v>0</v>
+      </c>
+      <c r="I390">
+        <v>0</v>
+      </c>
+      <c r="J390">
+        <v>0</v>
+      </c>
+      <c r="K390">
+        <v>0</v>
+      </c>
+      <c r="L390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
+        <v>6</v>
+      </c>
+      <c r="C391">
+        <v>5</v>
+      </c>
+      <c r="D391">
+        <v>0</v>
+      </c>
+      <c r="E391">
+        <v>5</v>
+      </c>
+      <c r="F391">
+        <v>2</v>
+      </c>
+      <c r="G391">
+        <v>1</v>
+      </c>
+      <c r="H391">
+        <v>0</v>
+      </c>
+      <c r="I391">
+        <v>0</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391">
+        <v>0</v>
+      </c>
+      <c r="L391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>7</v>
+      </c>
+      <c r="C392">
+        <v>5</v>
+      </c>
+      <c r="D392">
+        <v>0</v>
+      </c>
+      <c r="E392">
+        <v>5</v>
+      </c>
+      <c r="F392">
+        <v>1</v>
+      </c>
+      <c r="G392">
+        <v>1</v>
+      </c>
+      <c r="H392">
+        <v>0</v>
+      </c>
+      <c r="I392">
+        <v>0</v>
+      </c>
+      <c r="J392">
+        <v>0</v>
+      </c>
+      <c r="K392">
+        <v>0</v>
+      </c>
+      <c r="L392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>21</v>
+      </c>
+      <c r="C393">
+        <v>5</v>
+      </c>
+      <c r="D393">
+        <v>0</v>
+      </c>
+      <c r="E393">
+        <v>5</v>
+      </c>
+      <c r="F393">
+        <v>3</v>
+      </c>
+      <c r="G393">
+        <v>1</v>
+      </c>
+      <c r="H393">
+        <v>0</v>
+      </c>
+      <c r="I393">
+        <v>0</v>
+      </c>
+      <c r="J393">
+        <v>0</v>
+      </c>
+      <c r="K393">
+        <v>0</v>
+      </c>
+      <c r="L393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>5</v>
+      </c>
+      <c r="C394">
+        <v>4</v>
+      </c>
+      <c r="D394">
+        <v>0</v>
+      </c>
+      <c r="E394">
+        <v>4</v>
+      </c>
+      <c r="F394">
+        <v>2</v>
+      </c>
+      <c r="G394">
+        <v>1</v>
+      </c>
+      <c r="H394">
+        <v>0</v>
+      </c>
+      <c r="I394">
+        <v>0</v>
+      </c>
+      <c r="J394">
+        <v>0</v>
+      </c>
+      <c r="K394">
+        <v>0</v>
+      </c>
+      <c r="L394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>1</v>
+      </c>
+      <c r="C395">
+        <v>4</v>
+      </c>
+      <c r="D395">
+        <v>0</v>
+      </c>
+      <c r="E395">
+        <v>4</v>
+      </c>
+      <c r="F395">
+        <v>3</v>
+      </c>
+      <c r="G395">
+        <v>1</v>
+      </c>
+      <c r="H395">
+        <v>0</v>
+      </c>
+      <c r="I395">
+        <v>0</v>
+      </c>
+      <c r="J395">
+        <v>0</v>
+      </c>
+      <c r="K395">
+        <v>0</v>
+      </c>
+      <c r="L395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>30</v>
+      </c>
+      <c r="C396">
+        <v>4</v>
+      </c>
+      <c r="D396">
+        <v>0</v>
+      </c>
+      <c r="E396">
+        <v>4</v>
+      </c>
+      <c r="F396">
+        <v>0</v>
+      </c>
+      <c r="G396">
+        <v>1</v>
+      </c>
+      <c r="H396">
+        <v>0</v>
+      </c>
+      <c r="I396">
+        <v>0</v>
+      </c>
+      <c r="J396">
+        <v>0</v>
+      </c>
+      <c r="K396">
+        <v>0</v>
+      </c>
+      <c r="L396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>57</v>
+      </c>
+      <c r="C397">
+        <v>4</v>
+      </c>
+      <c r="D397">
+        <v>0</v>
+      </c>
+      <c r="E397">
+        <v>4</v>
+      </c>
+      <c r="F397">
+        <v>2</v>
+      </c>
+      <c r="G397">
+        <v>1</v>
+      </c>
+      <c r="H397">
+        <v>0</v>
+      </c>
+      <c r="I397">
+        <v>0</v>
+      </c>
+      <c r="J397">
+        <v>0</v>
+      </c>
+      <c r="K397">
+        <v>0</v>
+      </c>
+      <c r="L397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>2</v>
+      </c>
+      <c r="C398">
+        <v>4</v>
+      </c>
+      <c r="D398">
+        <v>0</v>
+      </c>
+      <c r="E398">
+        <v>4</v>
+      </c>
+      <c r="F398">
+        <v>1</v>
+      </c>
+      <c r="G398">
+        <v>1</v>
+      </c>
+      <c r="H398">
+        <v>0</v>
+      </c>
+      <c r="I398">
+        <v>0</v>
+      </c>
+      <c r="J398">
+        <v>0</v>
+      </c>
+      <c r="K398">
+        <v>0</v>
+      </c>
+      <c r="L398">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L455" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_02.xlsx
+++ b/pelada_sabado_2025_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4340" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{042A14E7-900E-4DE5-A068-40D45673D4B6}"/>
+  <xr:revisionPtr revIDLastSave="4458" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BE90424-A7E8-4CFF-8B06-716D60260196}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="101">
   <si>
     <t>Boneco</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>George</t>
+  </si>
+  <si>
+    <t>Cristian</t>
   </si>
 </sst>
 </file>
@@ -665,11 +668,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O398"/>
+  <dimension ref="A1:O420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B396" sqref="B396"/>
+      <pane ySplit="1" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J420" sqref="J420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14630,6 +14633,776 @@
         <v>0</v>
       </c>
     </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>29</v>
+      </c>
+      <c r="C399">
+        <v>3</v>
+      </c>
+      <c r="D399">
+        <v>4</v>
+      </c>
+      <c r="E399">
+        <v>2</v>
+      </c>
+      <c r="F399">
+        <v>0</v>
+      </c>
+      <c r="G399">
+        <v>1</v>
+      </c>
+      <c r="H399">
+        <v>0</v>
+      </c>
+      <c r="I399">
+        <v>0</v>
+      </c>
+      <c r="J399">
+        <v>0</v>
+      </c>
+      <c r="K399">
+        <v>0</v>
+      </c>
+      <c r="L399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>1</v>
+      </c>
+      <c r="C400">
+        <v>3</v>
+      </c>
+      <c r="D400">
+        <v>4</v>
+      </c>
+      <c r="E400">
+        <v>2</v>
+      </c>
+      <c r="F400">
+        <v>2</v>
+      </c>
+      <c r="G400">
+        <v>1</v>
+      </c>
+      <c r="H400">
+        <v>0</v>
+      </c>
+      <c r="I400">
+        <v>0</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+      <c r="K400">
+        <v>0</v>
+      </c>
+      <c r="L400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>4</v>
+      </c>
+      <c r="C401">
+        <v>3</v>
+      </c>
+      <c r="D401">
+        <v>4</v>
+      </c>
+      <c r="E401">
+        <v>2</v>
+      </c>
+      <c r="F401">
+        <v>2</v>
+      </c>
+      <c r="G401">
+        <v>1</v>
+      </c>
+      <c r="H401">
+        <v>0</v>
+      </c>
+      <c r="I401">
+        <v>0</v>
+      </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
+      <c r="K401">
+        <v>0</v>
+      </c>
+      <c r="L401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
+        <v>23</v>
+      </c>
+      <c r="C402">
+        <v>3</v>
+      </c>
+      <c r="D402">
+        <v>4</v>
+      </c>
+      <c r="E402">
+        <v>2</v>
+      </c>
+      <c r="F402">
+        <v>5</v>
+      </c>
+      <c r="G402">
+        <v>1</v>
+      </c>
+      <c r="H402">
+        <v>0</v>
+      </c>
+      <c r="I402">
+        <v>0</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+      <c r="K402">
+        <v>0</v>
+      </c>
+      <c r="L402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
+        <v>3</v>
+      </c>
+      <c r="C403">
+        <v>3</v>
+      </c>
+      <c r="D403">
+        <v>4</v>
+      </c>
+      <c r="E403">
+        <v>2</v>
+      </c>
+      <c r="F403">
+        <v>1</v>
+      </c>
+      <c r="G403">
+        <v>1</v>
+      </c>
+      <c r="H403">
+        <v>0</v>
+      </c>
+      <c r="I403">
+        <v>0</v>
+      </c>
+      <c r="J403">
+        <v>0</v>
+      </c>
+      <c r="K403">
+        <v>0</v>
+      </c>
+      <c r="L403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>53</v>
+      </c>
+      <c r="C404">
+        <v>2</v>
+      </c>
+      <c r="D404">
+        <v>5</v>
+      </c>
+      <c r="E404">
+        <v>1</v>
+      </c>
+      <c r="F404">
+        <v>3</v>
+      </c>
+      <c r="G404">
+        <v>1</v>
+      </c>
+      <c r="H404">
+        <v>0</v>
+      </c>
+      <c r="I404">
+        <v>0</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+      <c r="K404">
+        <v>0</v>
+      </c>
+      <c r="L404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
+        <v>32</v>
+      </c>
+      <c r="C405">
+        <v>2</v>
+      </c>
+      <c r="D405">
+        <v>5</v>
+      </c>
+      <c r="E405">
+        <v>1</v>
+      </c>
+      <c r="F405">
+        <v>1</v>
+      </c>
+      <c r="G405">
+        <v>1</v>
+      </c>
+      <c r="H405">
+        <v>0</v>
+      </c>
+      <c r="I405">
+        <v>0</v>
+      </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
+      <c r="K405">
+        <v>0</v>
+      </c>
+      <c r="L405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>28</v>
+      </c>
+      <c r="C406">
+        <v>2</v>
+      </c>
+      <c r="D406">
+        <v>5</v>
+      </c>
+      <c r="E406">
+        <v>1</v>
+      </c>
+      <c r="F406">
+        <v>0</v>
+      </c>
+      <c r="G406">
+        <v>1</v>
+      </c>
+      <c r="H406">
+        <v>0</v>
+      </c>
+      <c r="I406">
+        <v>0</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+      <c r="K406">
+        <v>0</v>
+      </c>
+      <c r="L406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>6</v>
+      </c>
+      <c r="C407">
+        <v>2</v>
+      </c>
+      <c r="D407">
+        <v>5</v>
+      </c>
+      <c r="E407">
+        <v>1</v>
+      </c>
+      <c r="F407">
+        <v>1</v>
+      </c>
+      <c r="G407">
+        <v>1</v>
+      </c>
+      <c r="H407">
+        <v>0</v>
+      </c>
+      <c r="I407">
+        <v>0</v>
+      </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
+      <c r="K407">
+        <v>0</v>
+      </c>
+      <c r="L407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
+        <v>27</v>
+      </c>
+      <c r="C408">
+        <v>2</v>
+      </c>
+      <c r="D408">
+        <v>5</v>
+      </c>
+      <c r="E408">
+        <v>1</v>
+      </c>
+      <c r="F408">
+        <v>0</v>
+      </c>
+      <c r="G408">
+        <v>1</v>
+      </c>
+      <c r="H408">
+        <v>0</v>
+      </c>
+      <c r="I408">
+        <v>0</v>
+      </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
+      <c r="K408">
+        <v>0</v>
+      </c>
+      <c r="L408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>57</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+      <c r="D409">
+        <v>2</v>
+      </c>
+      <c r="E409">
+        <v>5</v>
+      </c>
+      <c r="F409">
+        <v>1</v>
+      </c>
+      <c r="G409">
+        <v>1</v>
+      </c>
+      <c r="H409">
+        <v>0</v>
+      </c>
+      <c r="I409">
+        <v>1</v>
+      </c>
+      <c r="J409">
+        <v>0</v>
+      </c>
+      <c r="K409">
+        <v>0</v>
+      </c>
+      <c r="L409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
+        <v>30</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410">
+        <v>2</v>
+      </c>
+      <c r="E410">
+        <v>5</v>
+      </c>
+      <c r="F410">
+        <v>0</v>
+      </c>
+      <c r="G410">
+        <v>1</v>
+      </c>
+      <c r="H410">
+        <v>0</v>
+      </c>
+      <c r="I410">
+        <v>1</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+      <c r="K410">
+        <v>0</v>
+      </c>
+      <c r="L410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
+        <v>36</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+      <c r="D411">
+        <v>2</v>
+      </c>
+      <c r="E411">
+        <v>5</v>
+      </c>
+      <c r="F411">
+        <v>3</v>
+      </c>
+      <c r="G411">
+        <v>1</v>
+      </c>
+      <c r="H411">
+        <v>0</v>
+      </c>
+      <c r="I411">
+        <v>1</v>
+      </c>
+      <c r="J411">
+        <v>0</v>
+      </c>
+      <c r="K411">
+        <v>0</v>
+      </c>
+      <c r="L411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A412" t="s">
+        <v>50</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+      <c r="D412">
+        <v>2</v>
+      </c>
+      <c r="E412">
+        <v>5</v>
+      </c>
+      <c r="F412">
+        <v>0</v>
+      </c>
+      <c r="G412">
+        <v>1</v>
+      </c>
+      <c r="H412">
+        <v>0</v>
+      </c>
+      <c r="I412">
+        <v>1</v>
+      </c>
+      <c r="J412">
+        <v>0</v>
+      </c>
+      <c r="K412">
+        <v>0</v>
+      </c>
+      <c r="L412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A413" t="s">
+        <v>2</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+      <c r="D413">
+        <v>2</v>
+      </c>
+      <c r="E413">
+        <v>5</v>
+      </c>
+      <c r="F413">
+        <v>2</v>
+      </c>
+      <c r="G413">
+        <v>1</v>
+      </c>
+      <c r="H413">
+        <v>0</v>
+      </c>
+      <c r="I413">
+        <v>1</v>
+      </c>
+      <c r="J413">
+        <v>0</v>
+      </c>
+      <c r="K413">
+        <v>0</v>
+      </c>
+      <c r="L413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A414" t="s">
+        <v>24</v>
+      </c>
+      <c r="C414">
+        <v>4</v>
+      </c>
+      <c r="D414">
+        <v>3</v>
+      </c>
+      <c r="E414">
+        <v>2</v>
+      </c>
+      <c r="F414">
+        <v>0</v>
+      </c>
+      <c r="G414">
+        <v>1</v>
+      </c>
+      <c r="H414">
+        <v>1</v>
+      </c>
+      <c r="I414">
+        <v>0</v>
+      </c>
+      <c r="J414">
+        <v>0</v>
+      </c>
+      <c r="K414">
+        <v>0</v>
+      </c>
+      <c r="L414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A415" t="s">
+        <v>59</v>
+      </c>
+      <c r="C415">
+        <v>4</v>
+      </c>
+      <c r="D415">
+        <v>3</v>
+      </c>
+      <c r="E415">
+        <v>2</v>
+      </c>
+      <c r="F415">
+        <v>5</v>
+      </c>
+      <c r="G415">
+        <v>1</v>
+      </c>
+      <c r="H415">
+        <v>1</v>
+      </c>
+      <c r="I415">
+        <v>0</v>
+      </c>
+      <c r="J415">
+        <v>0</v>
+      </c>
+      <c r="K415">
+        <v>0</v>
+      </c>
+      <c r="L415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A416" t="s">
+        <v>5</v>
+      </c>
+      <c r="C416">
+        <v>4</v>
+      </c>
+      <c r="D416">
+        <v>3</v>
+      </c>
+      <c r="E416">
+        <v>2</v>
+      </c>
+      <c r="F416">
+        <v>3</v>
+      </c>
+      <c r="G416">
+        <v>1</v>
+      </c>
+      <c r="H416">
+        <v>1</v>
+      </c>
+      <c r="I416">
+        <v>0</v>
+      </c>
+      <c r="J416">
+        <v>0</v>
+      </c>
+      <c r="K416">
+        <v>0</v>
+      </c>
+      <c r="L416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A417" t="s">
+        <v>49</v>
+      </c>
+      <c r="C417">
+        <v>4</v>
+      </c>
+      <c r="D417">
+        <v>3</v>
+      </c>
+      <c r="E417">
+        <v>2</v>
+      </c>
+      <c r="F417">
+        <v>1</v>
+      </c>
+      <c r="G417">
+        <v>1</v>
+      </c>
+      <c r="H417">
+        <v>1</v>
+      </c>
+      <c r="I417">
+        <v>0</v>
+      </c>
+      <c r="J417">
+        <v>0</v>
+      </c>
+      <c r="K417">
+        <v>0</v>
+      </c>
+      <c r="L417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A418" t="s">
+        <v>20</v>
+      </c>
+      <c r="C418">
+        <v>4</v>
+      </c>
+      <c r="D418">
+        <v>3</v>
+      </c>
+      <c r="E418">
+        <v>2</v>
+      </c>
+      <c r="F418">
+        <v>1</v>
+      </c>
+      <c r="G418">
+        <v>1</v>
+      </c>
+      <c r="H418">
+        <v>1</v>
+      </c>
+      <c r="I418">
+        <v>0</v>
+      </c>
+      <c r="J418">
+        <v>0</v>
+      </c>
+      <c r="K418">
+        <v>0</v>
+      </c>
+      <c r="L418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A419" t="s">
+        <v>17</v>
+      </c>
+      <c r="C419">
+        <v>6</v>
+      </c>
+      <c r="D419">
+        <v>7</v>
+      </c>
+      <c r="E419">
+        <v>5</v>
+      </c>
+      <c r="F419">
+        <v>0</v>
+      </c>
+      <c r="G419">
+        <v>1</v>
+      </c>
+      <c r="H419">
+        <v>1</v>
+      </c>
+      <c r="I419">
+        <v>0</v>
+      </c>
+      <c r="J419">
+        <v>0</v>
+      </c>
+      <c r="K419">
+        <v>14</v>
+      </c>
+      <c r="L419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A420" t="s">
+        <v>100</v>
+      </c>
+      <c r="C420">
+        <v>5</v>
+      </c>
+      <c r="D420">
+        <v>7</v>
+      </c>
+      <c r="E420">
+        <v>6</v>
+      </c>
+      <c r="F420">
+        <v>0</v>
+      </c>
+      <c r="G420">
+        <v>1</v>
+      </c>
+      <c r="H420">
+        <v>0</v>
+      </c>
+      <c r="I420">
+        <v>1</v>
+      </c>
+      <c r="J420">
+        <v>0</v>
+      </c>
+      <c r="K420">
+        <v>14</v>
+      </c>
+      <c r="L420">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L455" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_02.xlsx
+++ b/pelada_sabado_2025_02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4458" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BE90424-A7E8-4CFF-8B06-716D60260196}"/>
+  <xr:revisionPtr revIDLastSave="4570" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9247657F-7A8F-490C-8F68-2958FA5E2DAA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="102">
   <si>
     <t>Boneco</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>Cristian</t>
+  </si>
+  <si>
+    <t>Dieguinho</t>
   </si>
 </sst>
 </file>
@@ -668,11 +671,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O420"/>
+  <dimension ref="A1:O442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J420" sqref="J420"/>
+      <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A444" sqref="A444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15403,6 +15406,776 @@
         <v>0</v>
       </c>
     </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A421" t="s">
+        <v>36</v>
+      </c>
+      <c r="C421">
+        <v>7</v>
+      </c>
+      <c r="D421">
+        <v>2</v>
+      </c>
+      <c r="E421">
+        <v>2</v>
+      </c>
+      <c r="F421">
+        <v>3</v>
+      </c>
+      <c r="G421">
+        <v>1</v>
+      </c>
+      <c r="H421">
+        <v>1</v>
+      </c>
+      <c r="I421">
+        <v>0</v>
+      </c>
+      <c r="J421">
+        <v>0</v>
+      </c>
+      <c r="K421">
+        <v>0</v>
+      </c>
+      <c r="L421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A422" t="s">
+        <v>3</v>
+      </c>
+      <c r="C422">
+        <v>7</v>
+      </c>
+      <c r="D422">
+        <v>2</v>
+      </c>
+      <c r="E422">
+        <v>2</v>
+      </c>
+      <c r="F422">
+        <v>1</v>
+      </c>
+      <c r="G422">
+        <v>1</v>
+      </c>
+      <c r="H422">
+        <v>1</v>
+      </c>
+      <c r="I422">
+        <v>0</v>
+      </c>
+      <c r="J422">
+        <v>0</v>
+      </c>
+      <c r="K422">
+        <v>0</v>
+      </c>
+      <c r="L422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A423" t="s">
+        <v>20</v>
+      </c>
+      <c r="C423">
+        <v>7</v>
+      </c>
+      <c r="D423">
+        <v>2</v>
+      </c>
+      <c r="E423">
+        <v>2</v>
+      </c>
+      <c r="F423">
+        <v>3</v>
+      </c>
+      <c r="G423">
+        <v>1</v>
+      </c>
+      <c r="H423">
+        <v>1</v>
+      </c>
+      <c r="I423">
+        <v>0</v>
+      </c>
+      <c r="J423">
+        <v>0</v>
+      </c>
+      <c r="K423">
+        <v>0</v>
+      </c>
+      <c r="L423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A424" t="s">
+        <v>29</v>
+      </c>
+      <c r="C424">
+        <v>7</v>
+      </c>
+      <c r="D424">
+        <v>2</v>
+      </c>
+      <c r="E424">
+        <v>2</v>
+      </c>
+      <c r="F424">
+        <v>5</v>
+      </c>
+      <c r="G424">
+        <v>1</v>
+      </c>
+      <c r="H424">
+        <v>1</v>
+      </c>
+      <c r="I424">
+        <v>0</v>
+      </c>
+      <c r="J424">
+        <v>0</v>
+      </c>
+      <c r="K424">
+        <v>0</v>
+      </c>
+      <c r="L424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A425" t="s">
+        <v>98</v>
+      </c>
+      <c r="C425">
+        <v>7</v>
+      </c>
+      <c r="D425">
+        <v>2</v>
+      </c>
+      <c r="E425">
+        <v>2</v>
+      </c>
+      <c r="F425">
+        <v>1</v>
+      </c>
+      <c r="G425">
+        <v>1</v>
+      </c>
+      <c r="H425">
+        <v>1</v>
+      </c>
+      <c r="I425">
+        <v>0</v>
+      </c>
+      <c r="J425">
+        <v>0</v>
+      </c>
+      <c r="K425">
+        <v>0</v>
+      </c>
+      <c r="L425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A426" t="s">
+        <v>25</v>
+      </c>
+      <c r="C426">
+        <v>3</v>
+      </c>
+      <c r="D426">
+        <v>2</v>
+      </c>
+      <c r="E426">
+        <v>3</v>
+      </c>
+      <c r="F426">
+        <v>0</v>
+      </c>
+      <c r="G426">
+        <v>1</v>
+      </c>
+      <c r="H426">
+        <v>0</v>
+      </c>
+      <c r="I426">
+        <v>0</v>
+      </c>
+      <c r="J426">
+        <v>0</v>
+      </c>
+      <c r="K426">
+        <v>0</v>
+      </c>
+      <c r="L426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A427" t="s">
+        <v>53</v>
+      </c>
+      <c r="C427">
+        <v>3</v>
+      </c>
+      <c r="D427">
+        <v>2</v>
+      </c>
+      <c r="E427">
+        <v>3</v>
+      </c>
+      <c r="F427">
+        <v>1</v>
+      </c>
+      <c r="G427">
+        <v>1</v>
+      </c>
+      <c r="H427">
+        <v>0</v>
+      </c>
+      <c r="I427">
+        <v>0</v>
+      </c>
+      <c r="J427">
+        <v>0</v>
+      </c>
+      <c r="K427">
+        <v>0</v>
+      </c>
+      <c r="L427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A428" t="s">
+        <v>30</v>
+      </c>
+      <c r="C428">
+        <v>3</v>
+      </c>
+      <c r="D428">
+        <v>2</v>
+      </c>
+      <c r="E428">
+        <v>3</v>
+      </c>
+      <c r="F428">
+        <v>1</v>
+      </c>
+      <c r="G428">
+        <v>1</v>
+      </c>
+      <c r="H428">
+        <v>0</v>
+      </c>
+      <c r="I428">
+        <v>0</v>
+      </c>
+      <c r="J428">
+        <v>0</v>
+      </c>
+      <c r="K428">
+        <v>0</v>
+      </c>
+      <c r="L428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A429" t="s">
+        <v>0</v>
+      </c>
+      <c r="C429">
+        <v>3</v>
+      </c>
+      <c r="D429">
+        <v>2</v>
+      </c>
+      <c r="E429">
+        <v>3</v>
+      </c>
+      <c r="F429">
+        <v>1</v>
+      </c>
+      <c r="G429">
+        <v>1</v>
+      </c>
+      <c r="H429">
+        <v>0</v>
+      </c>
+      <c r="I429">
+        <v>0</v>
+      </c>
+      <c r="J429">
+        <v>0</v>
+      </c>
+      <c r="K429">
+        <v>0</v>
+      </c>
+      <c r="L429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A430" t="s">
+        <v>5</v>
+      </c>
+      <c r="C430">
+        <v>3</v>
+      </c>
+      <c r="D430">
+        <v>2</v>
+      </c>
+      <c r="E430">
+        <v>3</v>
+      </c>
+      <c r="F430">
+        <v>4</v>
+      </c>
+      <c r="G430">
+        <v>1</v>
+      </c>
+      <c r="H430">
+        <v>0</v>
+      </c>
+      <c r="I430">
+        <v>0</v>
+      </c>
+      <c r="J430">
+        <v>0</v>
+      </c>
+      <c r="K430">
+        <v>0</v>
+      </c>
+      <c r="L430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A431" t="s">
+        <v>4</v>
+      </c>
+      <c r="C431">
+        <v>4</v>
+      </c>
+      <c r="D431">
+        <v>0</v>
+      </c>
+      <c r="E431">
+        <v>4</v>
+      </c>
+      <c r="F431">
+        <v>2</v>
+      </c>
+      <c r="G431">
+        <v>1</v>
+      </c>
+      <c r="H431">
+        <v>0</v>
+      </c>
+      <c r="I431">
+        <v>0</v>
+      </c>
+      <c r="J431">
+        <v>0</v>
+      </c>
+      <c r="K431">
+        <v>0</v>
+      </c>
+      <c r="L431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A432" t="s">
+        <v>6</v>
+      </c>
+      <c r="C432">
+        <v>4</v>
+      </c>
+      <c r="D432">
+        <v>0</v>
+      </c>
+      <c r="E432">
+        <v>4</v>
+      </c>
+      <c r="F432">
+        <v>1</v>
+      </c>
+      <c r="G432">
+        <v>1</v>
+      </c>
+      <c r="H432">
+        <v>0</v>
+      </c>
+      <c r="I432">
+        <v>0</v>
+      </c>
+      <c r="J432">
+        <v>0</v>
+      </c>
+      <c r="K432">
+        <v>0</v>
+      </c>
+      <c r="L432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A433" t="s">
+        <v>101</v>
+      </c>
+      <c r="C433">
+        <v>4</v>
+      </c>
+      <c r="D433">
+        <v>0</v>
+      </c>
+      <c r="E433">
+        <v>4</v>
+      </c>
+      <c r="F433">
+        <v>1</v>
+      </c>
+      <c r="G433">
+        <v>1</v>
+      </c>
+      <c r="H433">
+        <v>0</v>
+      </c>
+      <c r="I433">
+        <v>0</v>
+      </c>
+      <c r="J433">
+        <v>0</v>
+      </c>
+      <c r="K433">
+        <v>0</v>
+      </c>
+      <c r="L433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A434" t="s">
+        <v>2</v>
+      </c>
+      <c r="C434">
+        <v>4</v>
+      </c>
+      <c r="D434">
+        <v>0</v>
+      </c>
+      <c r="E434">
+        <v>4</v>
+      </c>
+      <c r="F434">
+        <v>1</v>
+      </c>
+      <c r="G434">
+        <v>1</v>
+      </c>
+      <c r="H434">
+        <v>0</v>
+      </c>
+      <c r="I434">
+        <v>0</v>
+      </c>
+      <c r="J434">
+        <v>0</v>
+      </c>
+      <c r="K434">
+        <v>0</v>
+      </c>
+      <c r="L434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A435" t="s">
+        <v>24</v>
+      </c>
+      <c r="C435">
+        <v>4</v>
+      </c>
+      <c r="D435">
+        <v>0</v>
+      </c>
+      <c r="E435">
+        <v>4</v>
+      </c>
+      <c r="F435">
+        <v>2</v>
+      </c>
+      <c r="G435">
+        <v>1</v>
+      </c>
+      <c r="H435">
+        <v>0</v>
+      </c>
+      <c r="I435">
+        <v>0</v>
+      </c>
+      <c r="J435">
+        <v>0</v>
+      </c>
+      <c r="K435">
+        <v>0</v>
+      </c>
+      <c r="L435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A436" t="s">
+        <v>32</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436">
+        <v>0</v>
+      </c>
+      <c r="E436">
+        <v>5</v>
+      </c>
+      <c r="F436">
+        <v>0</v>
+      </c>
+      <c r="G436">
+        <v>1</v>
+      </c>
+      <c r="H436">
+        <v>0</v>
+      </c>
+      <c r="I436">
+        <v>1</v>
+      </c>
+      <c r="J436">
+        <v>0</v>
+      </c>
+      <c r="K436">
+        <v>0</v>
+      </c>
+      <c r="L436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A437" t="s">
+        <v>34</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437">
+        <v>0</v>
+      </c>
+      <c r="E437">
+        <v>5</v>
+      </c>
+      <c r="F437">
+        <v>2</v>
+      </c>
+      <c r="G437">
+        <v>1</v>
+      </c>
+      <c r="H437">
+        <v>0</v>
+      </c>
+      <c r="I437">
+        <v>1</v>
+      </c>
+      <c r="J437">
+        <v>0</v>
+      </c>
+      <c r="K437">
+        <v>0</v>
+      </c>
+      <c r="L437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A438" t="s">
+        <v>27</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+      <c r="D438">
+        <v>0</v>
+      </c>
+      <c r="E438">
+        <v>5</v>
+      </c>
+      <c r="F438">
+        <v>0</v>
+      </c>
+      <c r="G438">
+        <v>1</v>
+      </c>
+      <c r="H438">
+        <v>0</v>
+      </c>
+      <c r="I438">
+        <v>1</v>
+      </c>
+      <c r="J438">
+        <v>0</v>
+      </c>
+      <c r="K438">
+        <v>0</v>
+      </c>
+      <c r="L438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A439" t="s">
+        <v>28</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+      <c r="D439">
+        <v>0</v>
+      </c>
+      <c r="E439">
+        <v>5</v>
+      </c>
+      <c r="F439">
+        <v>0</v>
+      </c>
+      <c r="G439">
+        <v>1</v>
+      </c>
+      <c r="H439">
+        <v>0</v>
+      </c>
+      <c r="I439">
+        <v>1</v>
+      </c>
+      <c r="J439">
+        <v>0</v>
+      </c>
+      <c r="K439">
+        <v>0</v>
+      </c>
+      <c r="L439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A440" t="s">
+        <v>1</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+      <c r="D440">
+        <v>0</v>
+      </c>
+      <c r="E440">
+        <v>5</v>
+      </c>
+      <c r="F440">
+        <v>0</v>
+      </c>
+      <c r="G440">
+        <v>1</v>
+      </c>
+      <c r="H440">
+        <v>0</v>
+      </c>
+      <c r="I440">
+        <v>1</v>
+      </c>
+      <c r="J440">
+        <v>0</v>
+      </c>
+      <c r="K440">
+        <v>0</v>
+      </c>
+      <c r="L440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A441" t="s">
+        <v>17</v>
+      </c>
+      <c r="C441">
+        <v>11</v>
+      </c>
+      <c r="D441">
+        <v>2</v>
+      </c>
+      <c r="E441">
+        <v>3</v>
+      </c>
+      <c r="F441">
+        <v>1</v>
+      </c>
+      <c r="G441">
+        <v>1</v>
+      </c>
+      <c r="H441">
+        <v>1</v>
+      </c>
+      <c r="I441">
+        <v>0</v>
+      </c>
+      <c r="J441">
+        <v>0</v>
+      </c>
+      <c r="K441">
+        <v>10</v>
+      </c>
+      <c r="L441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A442" t="s">
+        <v>55</v>
+      </c>
+      <c r="C442">
+        <v>3</v>
+      </c>
+      <c r="D442">
+        <v>2</v>
+      </c>
+      <c r="E442">
+        <v>11</v>
+      </c>
+      <c r="F442">
+        <v>0</v>
+      </c>
+      <c r="G442">
+        <v>1</v>
+      </c>
+      <c r="H442">
+        <v>0</v>
+      </c>
+      <c r="I442">
+        <v>1</v>
+      </c>
+      <c r="J442">
+        <v>0</v>
+      </c>
+      <c r="K442">
+        <v>14</v>
+      </c>
+      <c r="L442">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L455" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_02.xlsx
+++ b/pelada_sabado_2025_02.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\OneDrive - RitzBrasil\Desktop\Nova pasta (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4570" documentId="13_ncr:1_{36FF4164-CC9B-4219-88F1-B402B001A279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9247657F-7A8F-490C-8F68-2958FA5E2DAA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E719AF-977A-4013-BC3F-0564FE4BBC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="104">
   <si>
     <t>Boneco</t>
   </si>
@@ -345,6 +345,12 @@
   </si>
   <si>
     <t>Dieguinho</t>
+  </si>
+  <si>
+    <t>mateus</t>
+  </si>
+  <si>
+    <t>Breno</t>
   </si>
 </sst>
 </file>
@@ -671,11 +677,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O442"/>
+  <dimension ref="A1:O487"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A444" sqref="A444"/>
+      <pane ySplit="1" topLeftCell="A477" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K488" sqref="K488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16176,6 +16182,1581 @@
         <v>0</v>
       </c>
     </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A443" t="s">
+        <v>32</v>
+      </c>
+      <c r="C443">
+        <v>4</v>
+      </c>
+      <c r="D443">
+        <v>3</v>
+      </c>
+      <c r="E443">
+        <v>3</v>
+      </c>
+      <c r="F443">
+        <v>1</v>
+      </c>
+      <c r="G443">
+        <v>1</v>
+      </c>
+      <c r="H443">
+        <v>1</v>
+      </c>
+      <c r="I443">
+        <v>0</v>
+      </c>
+      <c r="J443">
+        <v>0</v>
+      </c>
+      <c r="K443">
+        <v>0</v>
+      </c>
+      <c r="L443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A444" t="s">
+        <v>1</v>
+      </c>
+      <c r="C444">
+        <v>4</v>
+      </c>
+      <c r="D444">
+        <v>3</v>
+      </c>
+      <c r="E444">
+        <v>3</v>
+      </c>
+      <c r="F444">
+        <v>2</v>
+      </c>
+      <c r="G444">
+        <v>1</v>
+      </c>
+      <c r="H444">
+        <v>1</v>
+      </c>
+      <c r="I444">
+        <v>0</v>
+      </c>
+      <c r="J444">
+        <v>0</v>
+      </c>
+      <c r="K444">
+        <v>0</v>
+      </c>
+      <c r="L444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A445" t="s">
+        <v>24</v>
+      </c>
+      <c r="C445">
+        <v>4</v>
+      </c>
+      <c r="D445">
+        <v>3</v>
+      </c>
+      <c r="E445">
+        <v>3</v>
+      </c>
+      <c r="F445">
+        <v>0</v>
+      </c>
+      <c r="G445">
+        <v>1</v>
+      </c>
+      <c r="H445">
+        <v>1</v>
+      </c>
+      <c r="I445">
+        <v>0</v>
+      </c>
+      <c r="J445">
+        <v>0</v>
+      </c>
+      <c r="K445">
+        <v>0</v>
+      </c>
+      <c r="L445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A446" t="s">
+        <v>6</v>
+      </c>
+      <c r="C446">
+        <v>4</v>
+      </c>
+      <c r="D446">
+        <v>3</v>
+      </c>
+      <c r="E446">
+        <v>3</v>
+      </c>
+      <c r="F446">
+        <v>2</v>
+      </c>
+      <c r="G446">
+        <v>1</v>
+      </c>
+      <c r="H446">
+        <v>1</v>
+      </c>
+      <c r="I446">
+        <v>0</v>
+      </c>
+      <c r="J446">
+        <v>0</v>
+      </c>
+      <c r="K446">
+        <v>0</v>
+      </c>
+      <c r="L446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
+        <v>36</v>
+      </c>
+      <c r="C447">
+        <v>4</v>
+      </c>
+      <c r="D447">
+        <v>3</v>
+      </c>
+      <c r="E447">
+        <v>3</v>
+      </c>
+      <c r="F447">
+        <v>5</v>
+      </c>
+      <c r="G447">
+        <v>1</v>
+      </c>
+      <c r="H447">
+        <v>1</v>
+      </c>
+      <c r="I447">
+        <v>0</v>
+      </c>
+      <c r="J447">
+        <v>0</v>
+      </c>
+      <c r="K447">
+        <v>0</v>
+      </c>
+      <c r="L447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
+        <v>38</v>
+      </c>
+      <c r="C448">
+        <v>4</v>
+      </c>
+      <c r="D448">
+        <v>3</v>
+      </c>
+      <c r="E448">
+        <v>3</v>
+      </c>
+      <c r="F448">
+        <v>0</v>
+      </c>
+      <c r="G448">
+        <v>1</v>
+      </c>
+      <c r="H448">
+        <v>0</v>
+      </c>
+      <c r="I448">
+        <v>0</v>
+      </c>
+      <c r="J448">
+        <v>0</v>
+      </c>
+      <c r="K448">
+        <v>0</v>
+      </c>
+      <c r="L448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A449" t="s">
+        <v>57</v>
+      </c>
+      <c r="C449">
+        <v>4</v>
+      </c>
+      <c r="D449">
+        <v>3</v>
+      </c>
+      <c r="E449">
+        <v>3</v>
+      </c>
+      <c r="F449">
+        <v>5</v>
+      </c>
+      <c r="G449">
+        <v>1</v>
+      </c>
+      <c r="H449">
+        <v>0</v>
+      </c>
+      <c r="I449">
+        <v>0</v>
+      </c>
+      <c r="J449">
+        <v>0</v>
+      </c>
+      <c r="K449">
+        <v>0</v>
+      </c>
+      <c r="L449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A450" t="s">
+        <v>30</v>
+      </c>
+      <c r="C450">
+        <v>4</v>
+      </c>
+      <c r="D450">
+        <v>3</v>
+      </c>
+      <c r="E450">
+        <v>3</v>
+      </c>
+      <c r="F450">
+        <v>1</v>
+      </c>
+      <c r="G450">
+        <v>1</v>
+      </c>
+      <c r="H450">
+        <v>0</v>
+      </c>
+      <c r="I450">
+        <v>0</v>
+      </c>
+      <c r="J450">
+        <v>0</v>
+      </c>
+      <c r="K450">
+        <v>0</v>
+      </c>
+      <c r="L450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A451" t="s">
+        <v>4</v>
+      </c>
+      <c r="C451">
+        <v>4</v>
+      </c>
+      <c r="D451">
+        <v>3</v>
+      </c>
+      <c r="E451">
+        <v>3</v>
+      </c>
+      <c r="F451">
+        <v>0</v>
+      </c>
+      <c r="G451">
+        <v>1</v>
+      </c>
+      <c r="H451">
+        <v>0</v>
+      </c>
+      <c r="I451">
+        <v>0</v>
+      </c>
+      <c r="J451">
+        <v>0</v>
+      </c>
+      <c r="K451">
+        <v>0</v>
+      </c>
+      <c r="L451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A452" t="s">
+        <v>29</v>
+      </c>
+      <c r="C452">
+        <v>4</v>
+      </c>
+      <c r="D452">
+        <v>3</v>
+      </c>
+      <c r="E452">
+        <v>3</v>
+      </c>
+      <c r="F452">
+        <v>2</v>
+      </c>
+      <c r="G452">
+        <v>1</v>
+      </c>
+      <c r="H452">
+        <v>0</v>
+      </c>
+      <c r="I452">
+        <v>0</v>
+      </c>
+      <c r="J452">
+        <v>0</v>
+      </c>
+      <c r="K452">
+        <v>0</v>
+      </c>
+      <c r="L452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A453" t="s">
+        <v>23</v>
+      </c>
+      <c r="C453">
+        <v>3</v>
+      </c>
+      <c r="D453">
+        <v>1</v>
+      </c>
+      <c r="E453">
+        <v>4</v>
+      </c>
+      <c r="F453">
+        <v>2</v>
+      </c>
+      <c r="G453">
+        <v>1</v>
+      </c>
+      <c r="H453">
+        <v>0</v>
+      </c>
+      <c r="I453">
+        <v>0</v>
+      </c>
+      <c r="J453">
+        <v>0</v>
+      </c>
+      <c r="K453">
+        <v>0</v>
+      </c>
+      <c r="L453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A454" t="s">
+        <v>28</v>
+      </c>
+      <c r="C454">
+        <v>3</v>
+      </c>
+      <c r="D454">
+        <v>1</v>
+      </c>
+      <c r="E454">
+        <v>4</v>
+      </c>
+      <c r="F454">
+        <v>0</v>
+      </c>
+      <c r="G454">
+        <v>1</v>
+      </c>
+      <c r="H454">
+        <v>0</v>
+      </c>
+      <c r="I454">
+        <v>0</v>
+      </c>
+      <c r="J454">
+        <v>0</v>
+      </c>
+      <c r="K454">
+        <v>0</v>
+      </c>
+      <c r="L454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A455" t="s">
+        <v>59</v>
+      </c>
+      <c r="C455">
+        <v>3</v>
+      </c>
+      <c r="D455">
+        <v>1</v>
+      </c>
+      <c r="E455">
+        <v>4</v>
+      </c>
+      <c r="F455">
+        <v>2</v>
+      </c>
+      <c r="G455">
+        <v>1</v>
+      </c>
+      <c r="H455">
+        <v>0</v>
+      </c>
+      <c r="I455">
+        <v>0</v>
+      </c>
+      <c r="J455">
+        <v>0</v>
+      </c>
+      <c r="K455">
+        <v>0</v>
+      </c>
+      <c r="L455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A456" t="s">
+        <v>2</v>
+      </c>
+      <c r="C456">
+        <v>3</v>
+      </c>
+      <c r="D456">
+        <v>1</v>
+      </c>
+      <c r="E456">
+        <v>4</v>
+      </c>
+      <c r="F456">
+        <v>1</v>
+      </c>
+      <c r="G456">
+        <v>1</v>
+      </c>
+      <c r="H456">
+        <v>0</v>
+      </c>
+      <c r="I456">
+        <v>0</v>
+      </c>
+      <c r="J456">
+        <v>0</v>
+      </c>
+      <c r="K456">
+        <v>0</v>
+      </c>
+      <c r="L456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A457" t="s">
+        <v>49</v>
+      </c>
+      <c r="C457">
+        <v>3</v>
+      </c>
+      <c r="D457">
+        <v>1</v>
+      </c>
+      <c r="E457">
+        <v>4</v>
+      </c>
+      <c r="F457">
+        <v>2</v>
+      </c>
+      <c r="G457">
+        <v>1</v>
+      </c>
+      <c r="H457">
+        <v>0</v>
+      </c>
+      <c r="I457">
+        <v>0</v>
+      </c>
+      <c r="J457">
+        <v>0</v>
+      </c>
+      <c r="K457">
+        <v>0</v>
+      </c>
+      <c r="L457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A458" t="s">
+        <v>3</v>
+      </c>
+      <c r="C458">
+        <v>2</v>
+      </c>
+      <c r="D458">
+        <v>3</v>
+      </c>
+      <c r="E458">
+        <v>3</v>
+      </c>
+      <c r="F458">
+        <v>1</v>
+      </c>
+      <c r="G458">
+        <v>1</v>
+      </c>
+      <c r="H458">
+        <v>0</v>
+      </c>
+      <c r="I458">
+        <v>1</v>
+      </c>
+      <c r="J458">
+        <v>0</v>
+      </c>
+      <c r="K458">
+        <v>0</v>
+      </c>
+      <c r="L458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A459" t="s">
+        <v>5</v>
+      </c>
+      <c r="C459">
+        <v>2</v>
+      </c>
+      <c r="D459">
+        <v>3</v>
+      </c>
+      <c r="E459">
+        <v>3</v>
+      </c>
+      <c r="F459">
+        <v>4</v>
+      </c>
+      <c r="G459">
+        <v>1</v>
+      </c>
+      <c r="H459">
+        <v>0</v>
+      </c>
+      <c r="I459">
+        <v>1</v>
+      </c>
+      <c r="J459">
+        <v>0</v>
+      </c>
+      <c r="K459">
+        <v>0</v>
+      </c>
+      <c r="L459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A460" t="s">
+        <v>35</v>
+      </c>
+      <c r="C460">
+        <v>2</v>
+      </c>
+      <c r="D460">
+        <v>3</v>
+      </c>
+      <c r="E460">
+        <v>3</v>
+      </c>
+      <c r="F460">
+        <v>0</v>
+      </c>
+      <c r="G460">
+        <v>1</v>
+      </c>
+      <c r="H460">
+        <v>0</v>
+      </c>
+      <c r="I460">
+        <v>1</v>
+      </c>
+      <c r="J460">
+        <v>0</v>
+      </c>
+      <c r="K460">
+        <v>0</v>
+      </c>
+      <c r="L460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A461" t="s">
+        <v>27</v>
+      </c>
+      <c r="C461">
+        <v>2</v>
+      </c>
+      <c r="D461">
+        <v>3</v>
+      </c>
+      <c r="E461">
+        <v>3</v>
+      </c>
+      <c r="F461">
+        <v>1</v>
+      </c>
+      <c r="G461">
+        <v>1</v>
+      </c>
+      <c r="H461">
+        <v>0</v>
+      </c>
+      <c r="I461">
+        <v>1</v>
+      </c>
+      <c r="J461">
+        <v>0</v>
+      </c>
+      <c r="K461">
+        <v>0</v>
+      </c>
+      <c r="L461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A462" t="s">
+        <v>20</v>
+      </c>
+      <c r="C462">
+        <v>2</v>
+      </c>
+      <c r="D462">
+        <v>3</v>
+      </c>
+      <c r="E462">
+        <v>3</v>
+      </c>
+      <c r="F462">
+        <v>0</v>
+      </c>
+      <c r="G462">
+        <v>1</v>
+      </c>
+      <c r="H462">
+        <v>0</v>
+      </c>
+      <c r="I462">
+        <v>1</v>
+      </c>
+      <c r="J462">
+        <v>0</v>
+      </c>
+      <c r="K462">
+        <v>0</v>
+      </c>
+      <c r="L462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A463" t="s">
+        <v>17</v>
+      </c>
+      <c r="C463">
+        <v>4</v>
+      </c>
+      <c r="D463">
+        <v>5</v>
+      </c>
+      <c r="E463">
+        <v>7</v>
+      </c>
+      <c r="F463">
+        <v>0</v>
+      </c>
+      <c r="G463">
+        <v>1</v>
+      </c>
+      <c r="H463">
+        <v>0</v>
+      </c>
+      <c r="I463">
+        <v>1</v>
+      </c>
+      <c r="J463">
+        <v>0</v>
+      </c>
+      <c r="K463">
+        <v>15</v>
+      </c>
+      <c r="L463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A464" t="s">
+        <v>55</v>
+      </c>
+      <c r="C464">
+        <v>7</v>
+      </c>
+      <c r="D464">
+        <v>5</v>
+      </c>
+      <c r="E464">
+        <v>4</v>
+      </c>
+      <c r="F464">
+        <v>0</v>
+      </c>
+      <c r="G464">
+        <v>1</v>
+      </c>
+      <c r="H464">
+        <v>1</v>
+      </c>
+      <c r="I464">
+        <v>0</v>
+      </c>
+      <c r="J464">
+        <v>0</v>
+      </c>
+      <c r="K464">
+        <v>11</v>
+      </c>
+      <c r="L464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A465" t="s">
+        <v>23</v>
+      </c>
+      <c r="C465">
+        <v>7</v>
+      </c>
+      <c r="D465">
+        <v>1</v>
+      </c>
+      <c r="E465">
+        <v>3</v>
+      </c>
+      <c r="F465">
+        <v>4</v>
+      </c>
+      <c r="G465">
+        <v>1</v>
+      </c>
+      <c r="H465">
+        <v>1</v>
+      </c>
+      <c r="I465">
+        <v>0</v>
+      </c>
+      <c r="J465">
+        <v>0</v>
+      </c>
+      <c r="K465">
+        <v>0</v>
+      </c>
+      <c r="L465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A466" t="s">
+        <v>1</v>
+      </c>
+      <c r="C466">
+        <v>7</v>
+      </c>
+      <c r="D466">
+        <v>1</v>
+      </c>
+      <c r="E466">
+        <v>3</v>
+      </c>
+      <c r="F466">
+        <v>1</v>
+      </c>
+      <c r="G466">
+        <v>1</v>
+      </c>
+      <c r="H466">
+        <v>1</v>
+      </c>
+      <c r="I466">
+        <v>0</v>
+      </c>
+      <c r="J466">
+        <v>0</v>
+      </c>
+      <c r="K466">
+        <v>0</v>
+      </c>
+      <c r="L466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A467" t="s">
+        <v>2</v>
+      </c>
+      <c r="C467">
+        <v>7</v>
+      </c>
+      <c r="D467">
+        <v>1</v>
+      </c>
+      <c r="E467">
+        <v>3</v>
+      </c>
+      <c r="F467">
+        <v>3</v>
+      </c>
+      <c r="G467">
+        <v>1</v>
+      </c>
+      <c r="H467">
+        <v>1</v>
+      </c>
+      <c r="I467">
+        <v>0</v>
+      </c>
+      <c r="J467">
+        <v>0</v>
+      </c>
+      <c r="K467">
+        <v>0</v>
+      </c>
+      <c r="L467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A468" t="s">
+        <v>29</v>
+      </c>
+      <c r="C468">
+        <v>7</v>
+      </c>
+      <c r="D468">
+        <v>1</v>
+      </c>
+      <c r="E468">
+        <v>3</v>
+      </c>
+      <c r="F468">
+        <v>1</v>
+      </c>
+      <c r="G468">
+        <v>1</v>
+      </c>
+      <c r="H468">
+        <v>1</v>
+      </c>
+      <c r="I468">
+        <v>0</v>
+      </c>
+      <c r="J468">
+        <v>0</v>
+      </c>
+      <c r="K468">
+        <v>0</v>
+      </c>
+      <c r="L468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A469" t="s">
+        <v>102</v>
+      </c>
+      <c r="C469">
+        <v>7</v>
+      </c>
+      <c r="D469">
+        <v>1</v>
+      </c>
+      <c r="E469">
+        <v>3</v>
+      </c>
+      <c r="F469">
+        <v>3</v>
+      </c>
+      <c r="G469">
+        <v>1</v>
+      </c>
+      <c r="H469">
+        <v>1</v>
+      </c>
+      <c r="I469">
+        <v>0</v>
+      </c>
+      <c r="J469">
+        <v>0</v>
+      </c>
+      <c r="K469">
+        <v>0</v>
+      </c>
+      <c r="L469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A470" t="s">
+        <v>34</v>
+      </c>
+      <c r="C470">
+        <v>5</v>
+      </c>
+      <c r="D470">
+        <v>1</v>
+      </c>
+      <c r="E470">
+        <v>3</v>
+      </c>
+      <c r="F470">
+        <v>2</v>
+      </c>
+      <c r="G470">
+        <v>1</v>
+      </c>
+      <c r="H470">
+        <v>0</v>
+      </c>
+      <c r="I470">
+        <v>0</v>
+      </c>
+      <c r="J470">
+        <v>0</v>
+      </c>
+      <c r="K470">
+        <v>0</v>
+      </c>
+      <c r="L470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A471" t="s">
+        <v>87</v>
+      </c>
+      <c r="C471">
+        <v>5</v>
+      </c>
+      <c r="D471">
+        <v>1</v>
+      </c>
+      <c r="E471">
+        <v>3</v>
+      </c>
+      <c r="F471">
+        <v>2</v>
+      </c>
+      <c r="G471">
+        <v>1</v>
+      </c>
+      <c r="H471">
+        <v>0</v>
+      </c>
+      <c r="I471">
+        <v>0</v>
+      </c>
+      <c r="J471">
+        <v>0</v>
+      </c>
+      <c r="K471">
+        <v>0</v>
+      </c>
+      <c r="L471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A472" t="s">
+        <v>24</v>
+      </c>
+      <c r="C472">
+        <v>5</v>
+      </c>
+      <c r="D472">
+        <v>1</v>
+      </c>
+      <c r="E472">
+        <v>3</v>
+      </c>
+      <c r="F472">
+        <v>0</v>
+      </c>
+      <c r="G472">
+        <v>1</v>
+      </c>
+      <c r="H472">
+        <v>0</v>
+      </c>
+      <c r="I472">
+        <v>0</v>
+      </c>
+      <c r="J472">
+        <v>0</v>
+      </c>
+      <c r="K472">
+        <v>0</v>
+      </c>
+      <c r="L472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A473" t="s">
+        <v>27</v>
+      </c>
+      <c r="C473">
+        <v>5</v>
+      </c>
+      <c r="D473">
+        <v>1</v>
+      </c>
+      <c r="E473">
+        <v>3</v>
+      </c>
+      <c r="F473">
+        <v>3</v>
+      </c>
+      <c r="G473">
+        <v>1</v>
+      </c>
+      <c r="H473">
+        <v>0</v>
+      </c>
+      <c r="I473">
+        <v>0</v>
+      </c>
+      <c r="J473">
+        <v>0</v>
+      </c>
+      <c r="K473">
+        <v>0</v>
+      </c>
+      <c r="L473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A474" t="s">
+        <v>32</v>
+      </c>
+      <c r="C474">
+        <v>5</v>
+      </c>
+      <c r="D474">
+        <v>1</v>
+      </c>
+      <c r="E474">
+        <v>3</v>
+      </c>
+      <c r="F474">
+        <v>2</v>
+      </c>
+      <c r="G474">
+        <v>1</v>
+      </c>
+      <c r="H474">
+        <v>0</v>
+      </c>
+      <c r="I474">
+        <v>0</v>
+      </c>
+      <c r="J474">
+        <v>0</v>
+      </c>
+      <c r="K474">
+        <v>0</v>
+      </c>
+      <c r="L474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A475" t="s">
+        <v>30</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+      <c r="D475">
+        <v>0</v>
+      </c>
+      <c r="E475">
+        <v>6</v>
+      </c>
+      <c r="F475">
+        <v>0</v>
+      </c>
+      <c r="G475">
+        <v>1</v>
+      </c>
+      <c r="H475">
+        <v>0</v>
+      </c>
+      <c r="I475">
+        <v>1</v>
+      </c>
+      <c r="J475">
+        <v>0</v>
+      </c>
+      <c r="K475">
+        <v>0</v>
+      </c>
+      <c r="L475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A476" t="s">
+        <v>38</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+      <c r="D476">
+        <v>0</v>
+      </c>
+      <c r="E476">
+        <v>6</v>
+      </c>
+      <c r="F476">
+        <v>0</v>
+      </c>
+      <c r="G476">
+        <v>1</v>
+      </c>
+      <c r="H476">
+        <v>0</v>
+      </c>
+      <c r="I476">
+        <v>1</v>
+      </c>
+      <c r="J476">
+        <v>0</v>
+      </c>
+      <c r="K476">
+        <v>0</v>
+      </c>
+      <c r="L476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A477" t="s">
+        <v>5</v>
+      </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="D477">
+        <v>0</v>
+      </c>
+      <c r="E477">
+        <v>6</v>
+      </c>
+      <c r="F477">
+        <v>0</v>
+      </c>
+      <c r="G477">
+        <v>1</v>
+      </c>
+      <c r="H477">
+        <v>0</v>
+      </c>
+      <c r="I477">
+        <v>1</v>
+      </c>
+      <c r="J477">
+        <v>0</v>
+      </c>
+      <c r="K477">
+        <v>0</v>
+      </c>
+      <c r="L477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A478" t="s">
+        <v>20</v>
+      </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="D478">
+        <v>0</v>
+      </c>
+      <c r="E478">
+        <v>6</v>
+      </c>
+      <c r="F478">
+        <v>0</v>
+      </c>
+      <c r="G478">
+        <v>1</v>
+      </c>
+      <c r="H478">
+        <v>0</v>
+      </c>
+      <c r="I478">
+        <v>1</v>
+      </c>
+      <c r="J478">
+        <v>0</v>
+      </c>
+      <c r="K478">
+        <v>0</v>
+      </c>
+      <c r="L478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A479" t="s">
+        <v>36</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+      <c r="D479">
+        <v>0</v>
+      </c>
+      <c r="E479">
+        <v>6</v>
+      </c>
+      <c r="F479">
+        <v>1</v>
+      </c>
+      <c r="G479">
+        <v>1</v>
+      </c>
+      <c r="H479">
+        <v>0</v>
+      </c>
+      <c r="I479">
+        <v>1</v>
+      </c>
+      <c r="J479">
+        <v>0</v>
+      </c>
+      <c r="K479">
+        <v>0</v>
+      </c>
+      <c r="L479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A480" t="s">
+        <v>6</v>
+      </c>
+      <c r="C480">
+        <v>3</v>
+      </c>
+      <c r="D480">
+        <v>2</v>
+      </c>
+      <c r="E480">
+        <v>3</v>
+      </c>
+      <c r="F480">
+        <v>1</v>
+      </c>
+      <c r="G480">
+        <v>1</v>
+      </c>
+      <c r="H480">
+        <v>0</v>
+      </c>
+      <c r="I480">
+        <v>0</v>
+      </c>
+      <c r="J480">
+        <v>0</v>
+      </c>
+      <c r="K480">
+        <v>0</v>
+      </c>
+      <c r="L480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A481" t="s">
+        <v>3</v>
+      </c>
+      <c r="C481">
+        <v>3</v>
+      </c>
+      <c r="D481">
+        <v>2</v>
+      </c>
+      <c r="E481">
+        <v>3</v>
+      </c>
+      <c r="F481">
+        <v>1</v>
+      </c>
+      <c r="G481">
+        <v>1</v>
+      </c>
+      <c r="H481">
+        <v>0</v>
+      </c>
+      <c r="I481">
+        <v>0</v>
+      </c>
+      <c r="J481">
+        <v>0</v>
+      </c>
+      <c r="K481">
+        <v>0</v>
+      </c>
+      <c r="L481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A482" t="s">
+        <v>79</v>
+      </c>
+      <c r="C482">
+        <v>3</v>
+      </c>
+      <c r="D482">
+        <v>2</v>
+      </c>
+      <c r="E482">
+        <v>3</v>
+      </c>
+      <c r="F482">
+        <v>1</v>
+      </c>
+      <c r="G482">
+        <v>1</v>
+      </c>
+      <c r="H482">
+        <v>0</v>
+      </c>
+      <c r="I482">
+        <v>0</v>
+      </c>
+      <c r="J482">
+        <v>0</v>
+      </c>
+      <c r="K482">
+        <v>0</v>
+      </c>
+      <c r="L482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A483" t="s">
+        <v>49</v>
+      </c>
+      <c r="C483">
+        <v>3</v>
+      </c>
+      <c r="D483">
+        <v>2</v>
+      </c>
+      <c r="E483">
+        <v>3</v>
+      </c>
+      <c r="F483">
+        <v>0</v>
+      </c>
+      <c r="G483">
+        <v>1</v>
+      </c>
+      <c r="H483">
+        <v>0</v>
+      </c>
+      <c r="I483">
+        <v>0</v>
+      </c>
+      <c r="J483">
+        <v>0</v>
+      </c>
+      <c r="K483">
+        <v>0</v>
+      </c>
+      <c r="L483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A484" t="s">
+        <v>4</v>
+      </c>
+      <c r="C484">
+        <v>3</v>
+      </c>
+      <c r="D484">
+        <v>2</v>
+      </c>
+      <c r="E484">
+        <v>3</v>
+      </c>
+      <c r="F484">
+        <v>5</v>
+      </c>
+      <c r="G484">
+        <v>1</v>
+      </c>
+      <c r="H484">
+        <v>0</v>
+      </c>
+      <c r="I484">
+        <v>0</v>
+      </c>
+      <c r="J484">
+        <v>0</v>
+      </c>
+      <c r="K484">
+        <v>0</v>
+      </c>
+      <c r="L484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A485" t="s">
+        <v>17</v>
+      </c>
+      <c r="C485">
+        <v>5</v>
+      </c>
+      <c r="D485">
+        <v>2</v>
+      </c>
+      <c r="E485">
+        <v>5</v>
+      </c>
+      <c r="F485">
+        <v>0</v>
+      </c>
+      <c r="G485">
+        <v>1</v>
+      </c>
+      <c r="H485">
+        <v>1</v>
+      </c>
+      <c r="I485">
+        <v>0</v>
+      </c>
+      <c r="J485">
+        <v>0</v>
+      </c>
+      <c r="K485">
+        <v>11</v>
+      </c>
+      <c r="L485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A486" t="s">
+        <v>45</v>
+      </c>
+      <c r="C486">
+        <v>5</v>
+      </c>
+      <c r="D486">
+        <v>1</v>
+      </c>
+      <c r="E486">
+        <v>5</v>
+      </c>
+      <c r="F486">
+        <v>0</v>
+      </c>
+      <c r="G486">
+        <v>1</v>
+      </c>
+      <c r="H486">
+        <v>0</v>
+      </c>
+      <c r="I486">
+        <v>0</v>
+      </c>
+      <c r="J486">
+        <v>0</v>
+      </c>
+      <c r="K486">
+        <v>8</v>
+      </c>
+      <c r="L486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A487" t="s">
+        <v>103</v>
+      </c>
+      <c r="C487">
+        <v>5</v>
+      </c>
+      <c r="D487">
+        <v>1</v>
+      </c>
+      <c r="E487">
+        <v>5</v>
+      </c>
+      <c r="F487">
+        <v>0</v>
+      </c>
+      <c r="G487">
+        <v>1</v>
+      </c>
+      <c r="H487">
+        <v>0</v>
+      </c>
+      <c r="I487">
+        <v>1</v>
+      </c>
+      <c r="J487">
+        <v>0</v>
+      </c>
+      <c r="K487">
+        <v>9</v>
+      </c>
+      <c r="L487">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L455" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_02.xlsx
+++ b/pelada_sabado_2025_02.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.almeida\OneDrive - RitzBrasil\Desktop\Nova pasta (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E719AF-977A-4013-BC3F-0564FE4BBC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{A8E719AF-977A-4013-BC3F-0564FE4BBC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AE5FD09-3986-42C8-A969-6F83EF5C1603}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="105">
   <si>
     <t>Boneco</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>Breno</t>
+  </si>
+  <si>
+    <t>Israel</t>
   </si>
 </sst>
 </file>
@@ -677,11 +680,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O487"/>
+  <dimension ref="A1:O507"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A477" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K488" sqref="K488"/>
+      <pane ySplit="1" topLeftCell="A494" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G495" sqref="G495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17757,6 +17760,706 @@
         <v>0</v>
       </c>
     </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A488" t="s">
+        <v>1</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+      <c r="D488">
+        <v>2</v>
+      </c>
+      <c r="E488">
+        <v>5</v>
+      </c>
+      <c r="F488">
+        <v>0</v>
+      </c>
+      <c r="G488">
+        <v>1</v>
+      </c>
+      <c r="H488">
+        <v>0</v>
+      </c>
+      <c r="I488">
+        <v>1</v>
+      </c>
+      <c r="J488">
+        <v>0</v>
+      </c>
+      <c r="K488">
+        <v>0</v>
+      </c>
+      <c r="L488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A489" t="s">
+        <v>6</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+      <c r="D489">
+        <v>2</v>
+      </c>
+      <c r="E489">
+        <v>5</v>
+      </c>
+      <c r="F489">
+        <v>0</v>
+      </c>
+      <c r="G489">
+        <v>1</v>
+      </c>
+      <c r="H489">
+        <v>0</v>
+      </c>
+      <c r="I489">
+        <v>1</v>
+      </c>
+      <c r="J489">
+        <v>0</v>
+      </c>
+      <c r="K489">
+        <v>0</v>
+      </c>
+      <c r="L489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A490" t="s">
+        <v>20</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+      <c r="D490">
+        <v>2</v>
+      </c>
+      <c r="E490">
+        <v>5</v>
+      </c>
+      <c r="F490">
+        <v>1</v>
+      </c>
+      <c r="G490">
+        <v>1</v>
+      </c>
+      <c r="H490">
+        <v>0</v>
+      </c>
+      <c r="I490">
+        <v>1</v>
+      </c>
+      <c r="J490">
+        <v>0</v>
+      </c>
+      <c r="K490">
+        <v>0</v>
+      </c>
+      <c r="L490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A491" t="s">
+        <v>30</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+      <c r="D491">
+        <v>2</v>
+      </c>
+      <c r="E491">
+        <v>5</v>
+      </c>
+      <c r="F491">
+        <v>0</v>
+      </c>
+      <c r="G491">
+        <v>1</v>
+      </c>
+      <c r="H491">
+        <v>0</v>
+      </c>
+      <c r="I491">
+        <v>1</v>
+      </c>
+      <c r="J491">
+        <v>0</v>
+      </c>
+      <c r="K491">
+        <v>0</v>
+      </c>
+      <c r="L491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A492" t="s">
+        <v>36</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492">
+        <v>2</v>
+      </c>
+      <c r="E492">
+        <v>5</v>
+      </c>
+      <c r="F492">
+        <v>2</v>
+      </c>
+      <c r="G492">
+        <v>1</v>
+      </c>
+      <c r="H492">
+        <v>0</v>
+      </c>
+      <c r="I492">
+        <v>1</v>
+      </c>
+      <c r="J492">
+        <v>0</v>
+      </c>
+      <c r="K492">
+        <v>0</v>
+      </c>
+      <c r="L492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A493" t="s">
+        <v>23</v>
+      </c>
+      <c r="C493">
+        <v>7</v>
+      </c>
+      <c r="D493">
+        <v>2</v>
+      </c>
+      <c r="E493">
+        <v>2</v>
+      </c>
+      <c r="F493">
+        <v>5</v>
+      </c>
+      <c r="G493">
+        <v>1</v>
+      </c>
+      <c r="H493">
+        <v>1</v>
+      </c>
+      <c r="I493">
+        <v>0</v>
+      </c>
+      <c r="J493">
+        <v>0</v>
+      </c>
+      <c r="K493">
+        <v>0</v>
+      </c>
+      <c r="L493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A494" t="s">
+        <v>49</v>
+      </c>
+      <c r="C494">
+        <v>7</v>
+      </c>
+      <c r="D494">
+        <v>2</v>
+      </c>
+      <c r="E494">
+        <v>2</v>
+      </c>
+      <c r="F494">
+        <v>4</v>
+      </c>
+      <c r="G494">
+        <v>1</v>
+      </c>
+      <c r="H494">
+        <v>1</v>
+      </c>
+      <c r="I494">
+        <v>0</v>
+      </c>
+      <c r="J494">
+        <v>0</v>
+      </c>
+      <c r="K494">
+        <v>0</v>
+      </c>
+      <c r="L494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A495" t="s">
+        <v>59</v>
+      </c>
+      <c r="C495">
+        <v>7</v>
+      </c>
+      <c r="D495">
+        <v>2</v>
+      </c>
+      <c r="E495">
+        <v>2</v>
+      </c>
+      <c r="F495">
+        <v>0</v>
+      </c>
+      <c r="G495">
+        <v>1</v>
+      </c>
+      <c r="H495">
+        <v>1</v>
+      </c>
+      <c r="I495">
+        <v>0</v>
+      </c>
+      <c r="J495">
+        <v>0</v>
+      </c>
+      <c r="K495">
+        <v>0</v>
+      </c>
+      <c r="L495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A496" t="s">
+        <v>27</v>
+      </c>
+      <c r="C496">
+        <v>7</v>
+      </c>
+      <c r="D496">
+        <v>2</v>
+      </c>
+      <c r="E496">
+        <v>2</v>
+      </c>
+      <c r="F496">
+        <v>2</v>
+      </c>
+      <c r="G496">
+        <v>1</v>
+      </c>
+      <c r="H496">
+        <v>1</v>
+      </c>
+      <c r="I496">
+        <v>0</v>
+      </c>
+      <c r="J496">
+        <v>0</v>
+      </c>
+      <c r="K496">
+        <v>0</v>
+      </c>
+      <c r="L496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A497" t="s">
+        <v>4</v>
+      </c>
+      <c r="C497">
+        <v>7</v>
+      </c>
+      <c r="D497">
+        <v>2</v>
+      </c>
+      <c r="E497">
+        <v>2</v>
+      </c>
+      <c r="F497">
+        <v>2</v>
+      </c>
+      <c r="G497">
+        <v>1</v>
+      </c>
+      <c r="H497">
+        <v>1</v>
+      </c>
+      <c r="I497">
+        <v>0</v>
+      </c>
+      <c r="J497">
+        <v>0</v>
+      </c>
+      <c r="K497">
+        <v>0</v>
+      </c>
+      <c r="L497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A498" t="s">
+        <v>24</v>
+      </c>
+      <c r="C498">
+        <v>3</v>
+      </c>
+      <c r="D498">
+        <v>1</v>
+      </c>
+      <c r="E498">
+        <v>4</v>
+      </c>
+      <c r="F498">
+        <v>0</v>
+      </c>
+      <c r="G498">
+        <v>1</v>
+      </c>
+      <c r="H498">
+        <v>0</v>
+      </c>
+      <c r="I498">
+        <v>0</v>
+      </c>
+      <c r="J498">
+        <v>0</v>
+      </c>
+      <c r="K498">
+        <v>0</v>
+      </c>
+      <c r="L498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A499" t="s">
+        <v>21</v>
+      </c>
+      <c r="C499">
+        <v>3</v>
+      </c>
+      <c r="D499">
+        <v>1</v>
+      </c>
+      <c r="E499">
+        <v>4</v>
+      </c>
+      <c r="F499">
+        <v>3</v>
+      </c>
+      <c r="G499">
+        <v>1</v>
+      </c>
+      <c r="H499">
+        <v>0</v>
+      </c>
+      <c r="I499">
+        <v>0</v>
+      </c>
+      <c r="J499">
+        <v>0</v>
+      </c>
+      <c r="K499">
+        <v>0</v>
+      </c>
+      <c r="L499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A500" t="s">
+        <v>0</v>
+      </c>
+      <c r="C500">
+        <v>3</v>
+      </c>
+      <c r="D500">
+        <v>1</v>
+      </c>
+      <c r="E500">
+        <v>4</v>
+      </c>
+      <c r="F500">
+        <v>0</v>
+      </c>
+      <c r="G500">
+        <v>1</v>
+      </c>
+      <c r="H500">
+        <v>0</v>
+      </c>
+      <c r="I500">
+        <v>0</v>
+      </c>
+      <c r="J500">
+        <v>0</v>
+      </c>
+      <c r="K500">
+        <v>0</v>
+      </c>
+      <c r="L500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A501" t="s">
+        <v>57</v>
+      </c>
+      <c r="C501">
+        <v>3</v>
+      </c>
+      <c r="D501">
+        <v>1</v>
+      </c>
+      <c r="E501">
+        <v>4</v>
+      </c>
+      <c r="F501">
+        <v>3</v>
+      </c>
+      <c r="G501">
+        <v>1</v>
+      </c>
+      <c r="H501">
+        <v>0</v>
+      </c>
+      <c r="I501">
+        <v>0</v>
+      </c>
+      <c r="J501">
+        <v>0</v>
+      </c>
+      <c r="K501">
+        <v>0</v>
+      </c>
+      <c r="L501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A502" t="s">
+        <v>104</v>
+      </c>
+      <c r="C502">
+        <v>3</v>
+      </c>
+      <c r="D502">
+        <v>1</v>
+      </c>
+      <c r="E502">
+        <v>4</v>
+      </c>
+      <c r="F502">
+        <v>2</v>
+      </c>
+      <c r="G502">
+        <v>1</v>
+      </c>
+      <c r="H502">
+        <v>0</v>
+      </c>
+      <c r="I502">
+        <v>0</v>
+      </c>
+      <c r="J502">
+        <v>0</v>
+      </c>
+      <c r="K502">
+        <v>0</v>
+      </c>
+      <c r="L502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A503" t="s">
+        <v>3</v>
+      </c>
+      <c r="C503">
+        <v>4</v>
+      </c>
+      <c r="D503">
+        <v>1</v>
+      </c>
+      <c r="E503">
+        <v>4</v>
+      </c>
+      <c r="F503">
+        <v>1</v>
+      </c>
+      <c r="G503">
+        <v>1</v>
+      </c>
+      <c r="H503">
+        <v>0</v>
+      </c>
+      <c r="I503">
+        <v>0</v>
+      </c>
+      <c r="J503">
+        <v>0</v>
+      </c>
+      <c r="K503">
+        <v>0</v>
+      </c>
+      <c r="L503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A504" t="s">
+        <v>34</v>
+      </c>
+      <c r="C504">
+        <v>4</v>
+      </c>
+      <c r="D504">
+        <v>1</v>
+      </c>
+      <c r="E504">
+        <v>4</v>
+      </c>
+      <c r="F504">
+        <v>1</v>
+      </c>
+      <c r="G504">
+        <v>1</v>
+      </c>
+      <c r="H504">
+        <v>0</v>
+      </c>
+      <c r="I504">
+        <v>0</v>
+      </c>
+      <c r="J504">
+        <v>0</v>
+      </c>
+      <c r="K504">
+        <v>0</v>
+      </c>
+      <c r="L504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A505" t="s">
+        <v>5</v>
+      </c>
+      <c r="C505">
+        <v>4</v>
+      </c>
+      <c r="D505">
+        <v>1</v>
+      </c>
+      <c r="E505">
+        <v>4</v>
+      </c>
+      <c r="F505">
+        <v>4</v>
+      </c>
+      <c r="G505">
+        <v>1</v>
+      </c>
+      <c r="H505">
+        <v>0</v>
+      </c>
+      <c r="I505">
+        <v>0</v>
+      </c>
+      <c r="J505">
+        <v>0</v>
+      </c>
+      <c r="K505">
+        <v>0</v>
+      </c>
+      <c r="L505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A506" t="s">
+        <v>28</v>
+      </c>
+      <c r="C506">
+        <v>4</v>
+      </c>
+      <c r="D506">
+        <v>1</v>
+      </c>
+      <c r="E506">
+        <v>4</v>
+      </c>
+      <c r="F506">
+        <v>0</v>
+      </c>
+      <c r="G506">
+        <v>1</v>
+      </c>
+      <c r="H506">
+        <v>0</v>
+      </c>
+      <c r="I506">
+        <v>0</v>
+      </c>
+      <c r="J506">
+        <v>0</v>
+      </c>
+      <c r="K506">
+        <v>0</v>
+      </c>
+      <c r="L506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A507" t="s">
+        <v>32</v>
+      </c>
+      <c r="C507">
+        <v>4</v>
+      </c>
+      <c r="D507">
+        <v>1</v>
+      </c>
+      <c r="E507">
+        <v>4</v>
+      </c>
+      <c r="F507">
+        <v>4</v>
+      </c>
+      <c r="G507">
+        <v>1</v>
+      </c>
+      <c r="H507">
+        <v>0</v>
+      </c>
+      <c r="I507">
+        <v>0</v>
+      </c>
+      <c r="J507">
+        <v>0</v>
+      </c>
+      <c r="K507">
+        <v>0</v>
+      </c>
+      <c r="L507">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L455" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pelada_sabado_2025_02.xlsx
+++ b/pelada_sabado_2025_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ritzferramentasltda-my.sharepoint.com/personal/fernando_almeida_ritzbrasil_com/Documents/Desktop/Nova pasta (2)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{A8E719AF-977A-4013-BC3F-0564FE4BBC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AE5FD09-3986-42C8-A969-6F83EF5C1603}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="13_ncr:1_{A8E719AF-977A-4013-BC3F-0564FE4BBC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{805A6926-ABC8-467A-B51D-E013E078461F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="105">
   <si>
     <t>Boneco</t>
   </si>
@@ -680,11 +680,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O507"/>
+  <dimension ref="A1:O530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A494" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G495" sqref="G495"/>
+      <pane ySplit="1" topLeftCell="A514" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C530" sqref="C530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18460,6 +18460,811 @@
         <v>0</v>
       </c>
     </row>
+    <row r="508" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A508" t="s">
+        <v>30</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+      <c r="D508">
+        <v>2</v>
+      </c>
+      <c r="E508">
+        <v>4</v>
+      </c>
+      <c r="F508">
+        <v>0</v>
+      </c>
+      <c r="G508">
+        <v>1</v>
+      </c>
+      <c r="H508">
+        <v>0</v>
+      </c>
+      <c r="I508">
+        <v>1</v>
+      </c>
+      <c r="J508">
+        <v>0</v>
+      </c>
+      <c r="K508">
+        <v>0</v>
+      </c>
+      <c r="L508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A509" t="s">
+        <v>49</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+      <c r="D509">
+        <v>2</v>
+      </c>
+      <c r="E509">
+        <v>4</v>
+      </c>
+      <c r="F509">
+        <v>1</v>
+      </c>
+      <c r="G509">
+        <v>1</v>
+      </c>
+      <c r="H509">
+        <v>0</v>
+      </c>
+      <c r="I509">
+        <v>1</v>
+      </c>
+      <c r="J509">
+        <v>0</v>
+      </c>
+      <c r="K509">
+        <v>0</v>
+      </c>
+      <c r="L509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A510" t="s">
+        <v>26</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+      <c r="D510">
+        <v>2</v>
+      </c>
+      <c r="E510">
+        <v>4</v>
+      </c>
+      <c r="F510">
+        <v>0</v>
+      </c>
+      <c r="G510">
+        <v>1</v>
+      </c>
+      <c r="H510">
+        <v>0</v>
+      </c>
+      <c r="I510">
+        <v>1</v>
+      </c>
+      <c r="J510">
+        <v>0</v>
+      </c>
+      <c r="K510">
+        <v>0</v>
+      </c>
+      <c r="L510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A511" t="s">
+        <v>5</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+      <c r="D511">
+        <v>2</v>
+      </c>
+      <c r="E511">
+        <v>4</v>
+      </c>
+      <c r="F511">
+        <v>1</v>
+      </c>
+      <c r="G511">
+        <v>1</v>
+      </c>
+      <c r="H511">
+        <v>0</v>
+      </c>
+      <c r="I511">
+        <v>1</v>
+      </c>
+      <c r="J511">
+        <v>0</v>
+      </c>
+      <c r="K511">
+        <v>0</v>
+      </c>
+      <c r="L511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A512" t="s">
+        <v>79</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512">
+        <v>2</v>
+      </c>
+      <c r="E512">
+        <v>4</v>
+      </c>
+      <c r="F512">
+        <v>1</v>
+      </c>
+      <c r="G512">
+        <v>1</v>
+      </c>
+      <c r="H512">
+        <v>0</v>
+      </c>
+      <c r="I512">
+        <v>1</v>
+      </c>
+      <c r="J512">
+        <v>0</v>
+      </c>
+      <c r="K512">
+        <v>0</v>
+      </c>
+      <c r="L512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A513" t="s">
+        <v>34</v>
+      </c>
+      <c r="C513">
+        <v>6</v>
+      </c>
+      <c r="D513">
+        <v>2</v>
+      </c>
+      <c r="E513">
+        <v>3</v>
+      </c>
+      <c r="F513">
+        <v>2</v>
+      </c>
+      <c r="G513">
+        <v>1</v>
+      </c>
+      <c r="H513">
+        <v>1</v>
+      </c>
+      <c r="I513">
+        <v>0</v>
+      </c>
+      <c r="J513">
+        <v>0</v>
+      </c>
+      <c r="K513">
+        <v>0</v>
+      </c>
+      <c r="L513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A514" t="s">
+        <v>36</v>
+      </c>
+      <c r="C514">
+        <v>6</v>
+      </c>
+      <c r="D514">
+        <v>2</v>
+      </c>
+      <c r="E514">
+        <v>3</v>
+      </c>
+      <c r="F514">
+        <v>4</v>
+      </c>
+      <c r="G514">
+        <v>1</v>
+      </c>
+      <c r="H514">
+        <v>1</v>
+      </c>
+      <c r="I514">
+        <v>0</v>
+      </c>
+      <c r="J514">
+        <v>0</v>
+      </c>
+      <c r="K514">
+        <v>0</v>
+      </c>
+      <c r="L514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A515" t="s">
+        <v>28</v>
+      </c>
+      <c r="C515">
+        <v>6</v>
+      </c>
+      <c r="D515">
+        <v>2</v>
+      </c>
+      <c r="E515">
+        <v>3</v>
+      </c>
+      <c r="F515">
+        <v>1</v>
+      </c>
+      <c r="G515">
+        <v>1</v>
+      </c>
+      <c r="H515">
+        <v>1</v>
+      </c>
+      <c r="I515">
+        <v>0</v>
+      </c>
+      <c r="J515">
+        <v>0</v>
+      </c>
+      <c r="K515">
+        <v>0</v>
+      </c>
+      <c r="L515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A516" t="s">
+        <v>4</v>
+      </c>
+      <c r="C516">
+        <v>6</v>
+      </c>
+      <c r="D516">
+        <v>2</v>
+      </c>
+      <c r="E516">
+        <v>3</v>
+      </c>
+      <c r="F516">
+        <v>5</v>
+      </c>
+      <c r="G516">
+        <v>1</v>
+      </c>
+      <c r="H516">
+        <v>1</v>
+      </c>
+      <c r="I516">
+        <v>0</v>
+      </c>
+      <c r="J516">
+        <v>0</v>
+      </c>
+      <c r="K516">
+        <v>0</v>
+      </c>
+      <c r="L516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A517" t="s">
+        <v>87</v>
+      </c>
+      <c r="C517">
+        <v>6</v>
+      </c>
+      <c r="D517">
+        <v>2</v>
+      </c>
+      <c r="E517">
+        <v>3</v>
+      </c>
+      <c r="F517">
+        <v>2</v>
+      </c>
+      <c r="G517">
+        <v>1</v>
+      </c>
+      <c r="H517">
+        <v>1</v>
+      </c>
+      <c r="I517">
+        <v>0</v>
+      </c>
+      <c r="J517">
+        <v>0</v>
+      </c>
+      <c r="K517">
+        <v>0</v>
+      </c>
+      <c r="L517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A518" t="s">
+        <v>24</v>
+      </c>
+      <c r="C518">
+        <v>3</v>
+      </c>
+      <c r="D518">
+        <v>3</v>
+      </c>
+      <c r="E518">
+        <v>2</v>
+      </c>
+      <c r="F518">
+        <v>0</v>
+      </c>
+      <c r="G518">
+        <v>1</v>
+      </c>
+      <c r="H518">
+        <v>0</v>
+      </c>
+      <c r="I518">
+        <v>0</v>
+      </c>
+      <c r="J518">
+        <v>0</v>
+      </c>
+      <c r="K518">
+        <v>0</v>
+      </c>
+      <c r="L518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A519" t="s">
+        <v>23</v>
+      </c>
+      <c r="C519">
+        <v>3</v>
+      </c>
+      <c r="D519">
+        <v>3</v>
+      </c>
+      <c r="E519">
+        <v>2</v>
+      </c>
+      <c r="F519">
+        <v>3</v>
+      </c>
+      <c r="G519">
+        <v>1</v>
+      </c>
+      <c r="H519">
+        <v>0</v>
+      </c>
+      <c r="I519">
+        <v>0</v>
+      </c>
+      <c r="J519">
+        <v>0</v>
+      </c>
+      <c r="K519">
+        <v>0</v>
+      </c>
+      <c r="L519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A520" t="s">
+        <v>32</v>
+      </c>
+      <c r="C520">
+        <v>3</v>
+      </c>
+      <c r="D520">
+        <v>3</v>
+      </c>
+      <c r="E520">
+        <v>2</v>
+      </c>
+      <c r="F520">
+        <v>0</v>
+      </c>
+      <c r="G520">
+        <v>1</v>
+      </c>
+      <c r="H520">
+        <v>0</v>
+      </c>
+      <c r="I520">
+        <v>0</v>
+      </c>
+      <c r="J520">
+        <v>0</v>
+      </c>
+      <c r="K520">
+        <v>0</v>
+      </c>
+      <c r="L520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A521" t="s">
+        <v>73</v>
+      </c>
+      <c r="C521">
+        <v>3</v>
+      </c>
+      <c r="D521">
+        <v>3</v>
+      </c>
+      <c r="E521">
+        <v>2</v>
+      </c>
+      <c r="F521">
+        <v>1</v>
+      </c>
+      <c r="G521">
+        <v>1</v>
+      </c>
+      <c r="H521">
+        <v>0</v>
+      </c>
+      <c r="I521">
+        <v>0</v>
+      </c>
+      <c r="J521">
+        <v>0</v>
+      </c>
+      <c r="K521">
+        <v>0</v>
+      </c>
+      <c r="L521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A522" t="s">
+        <v>29</v>
+      </c>
+      <c r="C522">
+        <v>3</v>
+      </c>
+      <c r="D522">
+        <v>3</v>
+      </c>
+      <c r="E522">
+        <v>2</v>
+      </c>
+      <c r="F522">
+        <v>1</v>
+      </c>
+      <c r="G522">
+        <v>1</v>
+      </c>
+      <c r="H522">
+        <v>0</v>
+      </c>
+      <c r="I522">
+        <v>0</v>
+      </c>
+      <c r="J522">
+        <v>0</v>
+      </c>
+      <c r="K522">
+        <v>0</v>
+      </c>
+      <c r="L522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A523" t="s">
+        <v>59</v>
+      </c>
+      <c r="C523">
+        <v>2</v>
+      </c>
+      <c r="D523">
+        <v>3</v>
+      </c>
+      <c r="E523">
+        <v>3</v>
+      </c>
+      <c r="F523">
+        <v>0</v>
+      </c>
+      <c r="G523">
+        <v>1</v>
+      </c>
+      <c r="H523">
+        <v>0</v>
+      </c>
+      <c r="I523">
+        <v>0</v>
+      </c>
+      <c r="J523">
+        <v>0</v>
+      </c>
+      <c r="K523">
+        <v>0</v>
+      </c>
+      <c r="L523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A524" t="s">
+        <v>3</v>
+      </c>
+      <c r="C524">
+        <v>2</v>
+      </c>
+      <c r="D524">
+        <v>3</v>
+      </c>
+      <c r="E524">
+        <v>3</v>
+      </c>
+      <c r="F524">
+        <v>1</v>
+      </c>
+      <c r="G524">
+        <v>1</v>
+      </c>
+      <c r="H524">
+        <v>0</v>
+      </c>
+      <c r="I524">
+        <v>0</v>
+      </c>
+      <c r="J524">
+        <v>0</v>
+      </c>
+      <c r="K524">
+        <v>0</v>
+      </c>
+      <c r="L524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A525" t="s">
+        <v>27</v>
+      </c>
+      <c r="C525">
+        <v>2</v>
+      </c>
+      <c r="D525">
+        <v>3</v>
+      </c>
+      <c r="E525">
+        <v>3</v>
+      </c>
+      <c r="F525">
+        <v>1</v>
+      </c>
+      <c r="G525">
+        <v>1</v>
+      </c>
+      <c r="H525">
+        <v>0</v>
+      </c>
+      <c r="I525">
+        <v>0</v>
+      </c>
+      <c r="J525">
+        <v>0</v>
+      </c>
+      <c r="K525">
+        <v>0</v>
+      </c>
+      <c r="L525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A526" t="s">
+        <v>6</v>
+      </c>
+      <c r="C526">
+        <v>2</v>
+      </c>
+      <c r="D526">
+        <v>3</v>
+      </c>
+      <c r="E526">
+        <v>3</v>
+      </c>
+      <c r="F526">
+        <v>3</v>
+      </c>
+      <c r="G526">
+        <v>1</v>
+      </c>
+      <c r="H526">
+        <v>0</v>
+      </c>
+      <c r="I526">
+        <v>0</v>
+      </c>
+      <c r="J526">
+        <v>0</v>
+      </c>
+      <c r="K526">
+        <v>0</v>
+      </c>
+      <c r="L526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A527" t="s">
+        <v>20</v>
+      </c>
+      <c r="C527">
+        <v>2</v>
+      </c>
+      <c r="D527">
+        <v>3</v>
+      </c>
+      <c r="E527">
+        <v>3</v>
+      </c>
+      <c r="F527">
+        <v>0</v>
+      </c>
+      <c r="G527">
+        <v>1</v>
+      </c>
+      <c r="H527">
+        <v>0</v>
+      </c>
+      <c r="I527">
+        <v>0</v>
+      </c>
+      <c r="J527">
+        <v>0</v>
+      </c>
+      <c r="K527">
+        <v>0</v>
+      </c>
+      <c r="L527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A528" t="s">
+        <v>17</v>
+      </c>
+      <c r="C528">
+        <v>6</v>
+      </c>
+      <c r="D528">
+        <v>3</v>
+      </c>
+      <c r="E528">
+        <v>4</v>
+      </c>
+      <c r="F528">
+        <v>1</v>
+      </c>
+      <c r="G528">
+        <v>1</v>
+      </c>
+      <c r="H528">
+        <v>1</v>
+      </c>
+      <c r="I528">
+        <v>0</v>
+      </c>
+      <c r="J528">
+        <v>0</v>
+      </c>
+      <c r="K528">
+        <v>7</v>
+      </c>
+      <c r="L528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A529" t="s">
+        <v>99</v>
+      </c>
+      <c r="C529">
+        <v>1</v>
+      </c>
+      <c r="D529">
+        <v>3</v>
+      </c>
+      <c r="E529">
+        <v>3</v>
+      </c>
+      <c r="F529">
+        <v>0</v>
+      </c>
+      <c r="G529">
+        <v>1</v>
+      </c>
+      <c r="H529">
+        <v>0</v>
+      </c>
+      <c r="I529">
+        <v>1</v>
+      </c>
+      <c r="J529">
+        <v>0</v>
+      </c>
+      <c r="K529">
+        <v>8</v>
+      </c>
+      <c r="L529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A530" t="s">
+        <v>45</v>
+      </c>
+      <c r="C530">
+        <v>3</v>
+      </c>
+      <c r="D530">
+        <v>6</v>
+      </c>
+      <c r="E530">
+        <v>3</v>
+      </c>
+      <c r="F530">
+        <v>0</v>
+      </c>
+      <c r="G530">
+        <v>1</v>
+      </c>
+      <c r="H530">
+        <v>0</v>
+      </c>
+      <c r="I530">
+        <v>0</v>
+      </c>
+      <c r="J530">
+        <v>0</v>
+      </c>
+      <c r="K530">
+        <v>10</v>
+      </c>
+      <c r="L530">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L455" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
